--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q2_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q2_Export.xlsx
@@ -51,7 +51,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -167,12 +167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
       <bottom>
         <color rgb="FF000000"/>
       </bottom>
@@ -212,9 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -23903,7 +23895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -23911,7 +23903,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v/>
+      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -24074,7 +24068,9 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr"/>
+      <c r="AN2" t="n">
+        <v/>
+      </c>
       <c r="AO2" t="inlineStr">
         <is>
           <t>Is a Goal</t>
@@ -24085,32 +24081,54 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AQ2" t="n">
+        <v/>
+      </c>
       <c r="AR2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
+      <c r="AS2" t="n">
+        <v/>
+      </c>
+      <c r="AT2" t="n">
+        <v/>
+      </c>
+      <c r="AU2" t="n">
+        <v/>
+      </c>
       <c r="AV2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v/>
+      </c>
+      <c r="AX2" t="n">
+        <v/>
+      </c>
+      <c r="AY2" t="n">
+        <v/>
+      </c>
       <c r="AZ2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
+      <c r="BA2" t="n">
+        <v/>
+      </c>
+      <c r="BB2" t="n">
+        <v/>
+      </c>
+      <c r="BC2" t="n">
+        <v/>
+      </c>
+      <c r="BD2" t="n">
+        <v/>
+      </c>
       <c r="BE2" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -24121,24 +24139,40 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG2" t="inlineStr"/>
+      <c r="BG2" t="n">
+        <v/>
+      </c>
       <c r="BH2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
+      <c r="BI2" t="n">
+        <v/>
+      </c>
+      <c r="BJ2" t="n">
+        <v/>
+      </c>
+      <c r="BK2" t="n">
+        <v/>
+      </c>
       <c r="BL2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
+      <c r="BM2" t="n">
+        <v/>
+      </c>
+      <c r="BN2" t="n">
+        <v/>
+      </c>
+      <c r="BO2" t="n">
+        <v/>
+      </c>
+      <c r="BP2" t="n">
+        <v/>
+      </c>
       <c r="BQ2" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -24149,8 +24183,12 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
+      <c r="BS2" t="n">
+        <v/>
+      </c>
+      <c r="BT2" t="n">
+        <v/>
+      </c>
       <c r="BU2" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -24161,39 +24199,65 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BW2" t="inlineStr"/>
+      <c r="BW2" t="n">
+        <v/>
+      </c>
       <c r="BX2" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY2" t="inlineStr"/>
-      <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr"/>
-      <c r="CB2" t="inlineStr"/>
+      <c r="BY2" t="n">
+        <v/>
+      </c>
+      <c r="BZ2" t="n">
+        <v/>
+      </c>
+      <c r="CA2" t="n">
+        <v/>
+      </c>
+      <c r="CB2" t="n">
+        <v/>
+      </c>
       <c r="CC2" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD2" t="inlineStr"/>
-      <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="inlineStr"/>
+      <c r="CD2" t="n">
+        <v/>
+      </c>
+      <c r="CE2" t="n">
+        <v/>
+      </c>
+      <c r="CF2" t="n">
+        <v/>
+      </c>
       <c r="CG2" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="inlineStr"/>
+      <c r="CH2" t="n">
+        <v/>
+      </c>
+      <c r="CI2" t="n">
+        <v/>
+      </c>
+      <c r="CJ2" t="n">
+        <v/>
+      </c>
       <c r="CK2" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL2" t="inlineStr"/>
-      <c r="CM2" t="inlineStr"/>
+      <c r="CL2" t="n">
+        <v/>
+      </c>
+      <c r="CM2" t="n">
+        <v/>
+      </c>
       <c r="CN2" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -24211,7 +24275,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24219,7 +24283,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v/>
+      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -24382,39 +24448,65 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v/>
+      </c>
       <c r="AO3" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v/>
+      </c>
+      <c r="AQ3" t="n">
+        <v/>
+      </c>
       <c r="AR3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
+      <c r="AS3" t="n">
+        <v/>
+      </c>
+      <c r="AT3" t="n">
+        <v/>
+      </c>
+      <c r="AU3" t="n">
+        <v/>
+      </c>
       <c r="AV3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v/>
+      </c>
+      <c r="AX3" t="n">
+        <v/>
+      </c>
+      <c r="AY3" t="n">
+        <v/>
+      </c>
+      <c r="AZ3" t="n">
+        <v/>
+      </c>
       <c r="BA3" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+      <c r="BB3" t="n">
+        <v/>
+      </c>
+      <c r="BC3" t="n">
+        <v/>
+      </c>
+      <c r="BD3" t="n">
+        <v/>
+      </c>
       <c r="BE3" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -24425,71 +24517,121 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr"/>
+      <c r="BG3" t="n">
+        <v/>
+      </c>
       <c r="BH3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
+      <c r="BI3" t="n">
+        <v/>
+      </c>
+      <c r="BJ3" t="n">
+        <v/>
+      </c>
+      <c r="BK3" t="n">
+        <v/>
+      </c>
       <c r="BL3" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
+      <c r="BM3" t="n">
+        <v/>
+      </c>
+      <c r="BN3" t="n">
+        <v/>
+      </c>
+      <c r="BO3" t="n">
+        <v/>
+      </c>
+      <c r="BP3" t="n">
+        <v/>
+      </c>
       <c r="BQ3" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
+      <c r="BR3" t="n">
+        <v/>
+      </c>
+      <c r="BS3" t="n">
+        <v/>
+      </c>
+      <c r="BT3" t="n">
+        <v/>
+      </c>
       <c r="BU3" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr"/>
+      <c r="BV3" t="n">
+        <v/>
+      </c>
+      <c r="BW3" t="n">
+        <v/>
+      </c>
+      <c r="BX3" t="n">
+        <v/>
+      </c>
       <c r="BY3" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr"/>
+      <c r="BZ3" t="n">
+        <v/>
+      </c>
+      <c r="CA3" t="n">
+        <v/>
+      </c>
+      <c r="CB3" t="n">
+        <v/>
+      </c>
       <c r="CC3" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD3" t="inlineStr"/>
-      <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="inlineStr"/>
+      <c r="CD3" t="n">
+        <v/>
+      </c>
+      <c r="CE3" t="n">
+        <v/>
+      </c>
+      <c r="CF3" t="n">
+        <v/>
+      </c>
       <c r="CG3" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
-      <c r="CJ3" t="inlineStr"/>
+      <c r="CH3" t="n">
+        <v/>
+      </c>
+      <c r="CI3" t="n">
+        <v/>
+      </c>
+      <c r="CJ3" t="n">
+        <v/>
+      </c>
       <c r="CK3" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
+      <c r="CL3" t="n">
+        <v/>
+      </c>
+      <c r="CM3" t="n">
+        <v/>
+      </c>
       <c r="CN3" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -24507,7 +24649,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -24515,7 +24657,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v/>
+      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -24683,105 +24827,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AO4" t="n">
+        <v/>
+      </c>
+      <c r="AP4" t="n">
+        <v/>
+      </c>
+      <c r="AQ4" t="n">
+        <v/>
+      </c>
       <c r="AR4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
+      <c r="AS4" t="n">
+        <v/>
+      </c>
+      <c r="AT4" t="n">
+        <v/>
+      </c>
+      <c r="AU4" t="n">
+        <v/>
+      </c>
       <c r="AV4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v/>
+      </c>
+      <c r="AX4" t="n">
+        <v/>
+      </c>
+      <c r="AY4" t="n">
+        <v/>
+      </c>
+      <c r="AZ4" t="n">
+        <v/>
+      </c>
       <c r="BA4" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+      <c r="BB4" t="n">
+        <v/>
+      </c>
+      <c r="BC4" t="n">
+        <v/>
+      </c>
+      <c r="BD4" t="n">
+        <v/>
+      </c>
       <c r="BE4" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr"/>
-      <c r="BG4" t="inlineStr"/>
+      <c r="BF4" t="n">
+        <v/>
+      </c>
+      <c r="BG4" t="n">
+        <v/>
+      </c>
       <c r="BH4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
+      <c r="BI4" t="n">
+        <v/>
+      </c>
+      <c r="BJ4" t="n">
+        <v/>
+      </c>
+      <c r="BK4" t="n">
+        <v/>
+      </c>
       <c r="BL4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr"/>
-      <c r="BO4" t="inlineStr"/>
+      <c r="BM4" t="n">
+        <v/>
+      </c>
+      <c r="BN4" t="n">
+        <v/>
+      </c>
+      <c r="BO4" t="n">
+        <v/>
+      </c>
       <c r="BP4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="inlineStr"/>
+      <c r="BQ4" t="n">
+        <v/>
+      </c>
+      <c r="BR4" t="n">
+        <v/>
+      </c>
+      <c r="BS4" t="n">
+        <v/>
+      </c>
       <c r="BT4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr"/>
-      <c r="BV4" t="inlineStr"/>
-      <c r="BW4" t="inlineStr"/>
-      <c r="BX4" t="inlineStr"/>
+      <c r="BU4" t="n">
+        <v/>
+      </c>
+      <c r="BV4" t="n">
+        <v/>
+      </c>
+      <c r="BW4" t="n">
+        <v/>
+      </c>
+      <c r="BX4" t="n">
+        <v/>
+      </c>
       <c r="BY4" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ4" t="inlineStr"/>
-      <c r="CA4" t="inlineStr"/>
-      <c r="CB4" t="inlineStr"/>
+      <c r="BZ4" t="n">
+        <v/>
+      </c>
+      <c r="CA4" t="n">
+        <v/>
+      </c>
+      <c r="CB4" t="n">
+        <v/>
+      </c>
       <c r="CC4" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr"/>
-      <c r="CE4" t="inlineStr"/>
+      <c r="CD4" t="n">
+        <v/>
+      </c>
+      <c r="CE4" t="n">
+        <v/>
+      </c>
       <c r="CF4" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr"/>
-      <c r="CH4" t="inlineStr"/>
-      <c r="CI4" t="inlineStr"/>
-      <c r="CJ4" t="inlineStr"/>
+      <c r="CG4" t="n">
+        <v/>
+      </c>
+      <c r="CH4" t="n">
+        <v/>
+      </c>
+      <c r="CI4" t="n">
+        <v/>
+      </c>
+      <c r="CJ4" t="n">
+        <v/>
+      </c>
       <c r="CK4" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL4" t="inlineStr"/>
-      <c r="CM4" t="inlineStr"/>
+      <c r="CL4" t="n">
+        <v/>
+      </c>
+      <c r="CM4" t="n">
+        <v/>
+      </c>
       <c r="CN4" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -24799,7 +25021,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -24807,7 +25029,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v/>
+      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -24975,105 +25199,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
+      <c r="AO5" t="n">
+        <v/>
+      </c>
+      <c r="AP5" t="n">
+        <v/>
+      </c>
+      <c r="AQ5" t="n">
+        <v/>
+      </c>
+      <c r="AR5" t="n">
+        <v/>
+      </c>
       <c r="AS5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
+      <c r="AT5" t="n">
+        <v/>
+      </c>
+      <c r="AU5" t="n">
+        <v/>
+      </c>
       <c r="AV5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v/>
+      </c>
+      <c r="AX5" t="n">
+        <v/>
+      </c>
+      <c r="AY5" t="n">
+        <v/>
+      </c>
       <c r="AZ5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+      <c r="BA5" t="n">
+        <v/>
+      </c>
+      <c r="BB5" t="n">
+        <v/>
+      </c>
+      <c r="BC5" t="n">
+        <v/>
+      </c>
+      <c r="BD5" t="n">
+        <v/>
+      </c>
       <c r="BE5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="inlineStr"/>
+      <c r="BF5" t="n">
+        <v/>
+      </c>
+      <c r="BG5" t="n">
+        <v/>
+      </c>
       <c r="BH5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
+      <c r="BI5" t="n">
+        <v/>
+      </c>
+      <c r="BJ5" t="n">
+        <v/>
+      </c>
+      <c r="BK5" t="n">
+        <v/>
+      </c>
       <c r="BL5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="inlineStr"/>
+      <c r="BM5" t="n">
+        <v/>
+      </c>
+      <c r="BN5" t="n">
+        <v/>
+      </c>
+      <c r="BO5" t="n">
+        <v/>
+      </c>
       <c r="BP5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
+      <c r="BQ5" t="n">
+        <v/>
+      </c>
+      <c r="BR5" t="n">
+        <v/>
+      </c>
+      <c r="BS5" t="n">
+        <v/>
+      </c>
       <c r="BT5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU5" t="inlineStr"/>
-      <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="inlineStr"/>
+      <c r="BU5" t="n">
+        <v/>
+      </c>
+      <c r="BV5" t="n">
+        <v/>
+      </c>
+      <c r="BW5" t="n">
+        <v/>
+      </c>
+      <c r="BX5" t="n">
+        <v/>
+      </c>
       <c r="BY5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ5" t="inlineStr"/>
-      <c r="CA5" t="inlineStr"/>
-      <c r="CB5" t="inlineStr"/>
+      <c r="BZ5" t="n">
+        <v/>
+      </c>
+      <c r="CA5" t="n">
+        <v/>
+      </c>
+      <c r="CB5" t="n">
+        <v/>
+      </c>
       <c r="CC5" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr"/>
-      <c r="CE5" t="inlineStr"/>
+      <c r="CD5" t="n">
+        <v/>
+      </c>
+      <c r="CE5" t="n">
+        <v/>
+      </c>
       <c r="CF5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG5" t="inlineStr"/>
-      <c r="CH5" t="inlineStr"/>
-      <c r="CI5" t="inlineStr"/>
+      <c r="CG5" t="n">
+        <v/>
+      </c>
+      <c r="CH5" t="n">
+        <v/>
+      </c>
+      <c r="CI5" t="n">
+        <v/>
+      </c>
       <c r="CJ5" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK5" t="inlineStr"/>
-      <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="inlineStr"/>
+      <c r="CK5" t="n">
+        <v/>
+      </c>
+      <c r="CL5" t="n">
+        <v/>
+      </c>
+      <c r="CM5" t="n">
+        <v/>
+      </c>
       <c r="CN5" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -25091,7 +25393,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25099,7 +25401,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v/>
+      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -25267,105 +25571,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AO6" t="n">
+        <v/>
+      </c>
+      <c r="AP6" t="n">
+        <v/>
+      </c>
+      <c r="AQ6" t="n">
+        <v/>
+      </c>
       <c r="AR6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
+      <c r="AS6" t="n">
+        <v/>
+      </c>
+      <c r="AT6" t="n">
+        <v/>
+      </c>
+      <c r="AU6" t="n">
+        <v/>
+      </c>
       <c r="AV6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v/>
+      </c>
+      <c r="AX6" t="n">
+        <v/>
+      </c>
+      <c r="AY6" t="n">
+        <v/>
+      </c>
       <c r="AZ6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+      <c r="BA6" t="n">
+        <v/>
+      </c>
+      <c r="BB6" t="n">
+        <v/>
+      </c>
+      <c r="BC6" t="n">
+        <v/>
+      </c>
+      <c r="BD6" t="n">
+        <v/>
+      </c>
       <c r="BE6" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr"/>
-      <c r="BG6" t="inlineStr"/>
+      <c r="BF6" t="n">
+        <v/>
+      </c>
+      <c r="BG6" t="n">
+        <v/>
+      </c>
       <c r="BH6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
+      <c r="BI6" t="n">
+        <v/>
+      </c>
+      <c r="BJ6" t="n">
+        <v/>
+      </c>
+      <c r="BK6" t="n">
+        <v/>
+      </c>
       <c r="BL6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="inlineStr"/>
+      <c r="BM6" t="n">
+        <v/>
+      </c>
+      <c r="BN6" t="n">
+        <v/>
+      </c>
+      <c r="BO6" t="n">
+        <v/>
+      </c>
+      <c r="BP6" t="n">
+        <v/>
+      </c>
       <c r="BQ6" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr"/>
+      <c r="BR6" t="n">
+        <v/>
+      </c>
+      <c r="BS6" t="n">
+        <v/>
+      </c>
       <c r="BT6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU6" t="inlineStr"/>
-      <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
+      <c r="BU6" t="n">
+        <v/>
+      </c>
+      <c r="BV6" t="n">
+        <v/>
+      </c>
+      <c r="BW6" t="n">
+        <v/>
+      </c>
       <c r="BX6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY6" t="inlineStr"/>
-      <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="inlineStr"/>
+      <c r="BY6" t="n">
+        <v/>
+      </c>
+      <c r="BZ6" t="n">
+        <v/>
+      </c>
+      <c r="CA6" t="n">
+        <v/>
+      </c>
       <c r="CB6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CC6" t="inlineStr"/>
-      <c r="CD6" t="inlineStr"/>
-      <c r="CE6" t="inlineStr"/>
+      <c r="CC6" t="n">
+        <v/>
+      </c>
+      <c r="CD6" t="n">
+        <v/>
+      </c>
+      <c r="CE6" t="n">
+        <v/>
+      </c>
       <c r="CF6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG6" t="inlineStr"/>
-      <c r="CH6" t="inlineStr"/>
-      <c r="CI6" t="inlineStr"/>
+      <c r="CG6" t="n">
+        <v/>
+      </c>
+      <c r="CH6" t="n">
+        <v/>
+      </c>
+      <c r="CI6" t="n">
+        <v/>
+      </c>
       <c r="CJ6" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK6" t="inlineStr"/>
-      <c r="CL6" t="inlineStr"/>
-      <c r="CM6" t="inlineStr"/>
+      <c r="CK6" t="n">
+        <v/>
+      </c>
+      <c r="CL6" t="n">
+        <v/>
+      </c>
+      <c r="CM6" t="n">
+        <v/>
+      </c>
       <c r="CN6" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -25383,7 +25765,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -25391,7 +25773,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v/>
+      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -25554,7 +25938,9 @@
           <t>Already in place</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr"/>
+      <c r="AN7" t="n">
+        <v/>
+      </c>
       <c r="AO7" t="inlineStr">
         <is>
           <t>Is a Goal</t>
@@ -25565,32 +25951,54 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
       <c r="AR7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
+      <c r="AS7" t="n">
+        <v/>
+      </c>
+      <c r="AT7" t="n">
+        <v/>
+      </c>
+      <c r="AU7" t="n">
+        <v/>
+      </c>
       <c r="AV7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v/>
+      </c>
+      <c r="AX7" t="n">
+        <v/>
+      </c>
+      <c r="AY7" t="n">
+        <v/>
+      </c>
       <c r="AZ7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+      <c r="BA7" t="n">
+        <v/>
+      </c>
+      <c r="BB7" t="n">
+        <v/>
+      </c>
+      <c r="BC7" t="n">
+        <v/>
+      </c>
+      <c r="BD7" t="n">
+        <v/>
+      </c>
       <c r="BE7" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -25601,48 +26009,82 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG7" t="inlineStr"/>
+      <c r="BG7" t="n">
+        <v/>
+      </c>
       <c r="BH7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
+      <c r="BI7" t="n">
+        <v/>
+      </c>
+      <c r="BJ7" t="n">
+        <v/>
+      </c>
+      <c r="BK7" t="n">
+        <v/>
+      </c>
       <c r="BL7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
-      <c r="BO7" t="inlineStr"/>
+      <c r="BM7" t="n">
+        <v/>
+      </c>
+      <c r="BN7" t="n">
+        <v/>
+      </c>
+      <c r="BO7" t="n">
+        <v/>
+      </c>
       <c r="BP7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
+      <c r="BQ7" t="n">
+        <v/>
+      </c>
+      <c r="BR7" t="n">
+        <v/>
+      </c>
+      <c r="BS7" t="n">
+        <v/>
+      </c>
       <c r="BT7" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU7" t="inlineStr"/>
-      <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="inlineStr"/>
-      <c r="BY7" t="inlineStr"/>
+      <c r="BU7" t="n">
+        <v/>
+      </c>
+      <c r="BV7" t="n">
+        <v/>
+      </c>
+      <c r="BW7" t="n">
+        <v/>
+      </c>
+      <c r="BX7" t="n">
+        <v/>
+      </c>
+      <c r="BY7" t="n">
+        <v/>
+      </c>
       <c r="BZ7" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="inlineStr"/>
+      <c r="CA7" t="n">
+        <v/>
+      </c>
+      <c r="CB7" t="n">
+        <v/>
+      </c>
       <c r="CC7" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -25653,8 +26095,12 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CE7" t="inlineStr"/>
-      <c r="CF7" t="inlineStr"/>
+      <c r="CE7" t="n">
+        <v/>
+      </c>
+      <c r="CF7" t="n">
+        <v/>
+      </c>
       <c r="CG7" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -25665,15 +26111,23 @@
           <t>Goal was acheived</t>
         </is>
       </c>
-      <c r="CI7" t="inlineStr"/>
-      <c r="CJ7" t="inlineStr"/>
+      <c r="CI7" t="n">
+        <v/>
+      </c>
+      <c r="CJ7" t="n">
+        <v/>
+      </c>
       <c r="CK7" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
+      <c r="CL7" t="n">
+        <v/>
+      </c>
+      <c r="CM7" t="n">
+        <v/>
+      </c>
       <c r="CN7" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -25691,7 +26145,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -25699,7 +26153,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v/>
+      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -25862,110 +26318,188 @@
           <t>Already in place</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr"/>
+      <c r="AN8" t="n">
+        <v/>
+      </c>
       <c r="AO8" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v/>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
       <c r="AR8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
+      <c r="AS8" t="n">
+        <v/>
+      </c>
+      <c r="AT8" t="n">
+        <v/>
+      </c>
+      <c r="AU8" t="n">
+        <v/>
+      </c>
       <c r="AV8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
+      <c r="AW8" t="n">
+        <v/>
+      </c>
+      <c r="AX8" t="n">
+        <v/>
+      </c>
+      <c r="AY8" t="n">
+        <v/>
+      </c>
       <c r="AZ8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
+      <c r="BA8" t="n">
+        <v/>
+      </c>
+      <c r="BB8" t="n">
+        <v/>
+      </c>
+      <c r="BC8" t="n">
+        <v/>
+      </c>
+      <c r="BD8" t="n">
+        <v/>
+      </c>
       <c r="BE8" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF8" t="inlineStr"/>
-      <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
+      <c r="BF8" t="n">
+        <v/>
+      </c>
+      <c r="BG8" t="n">
+        <v/>
+      </c>
+      <c r="BH8" t="n">
+        <v/>
+      </c>
       <c r="BI8" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
+      <c r="BJ8" t="n">
+        <v/>
+      </c>
+      <c r="BK8" t="n">
+        <v/>
+      </c>
       <c r="BL8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
+      <c r="BM8" t="n">
+        <v/>
+      </c>
+      <c r="BN8" t="n">
+        <v/>
+      </c>
+      <c r="BO8" t="n">
+        <v/>
+      </c>
       <c r="BP8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
-      <c r="BT8" t="inlineStr"/>
+      <c r="BQ8" t="n">
+        <v/>
+      </c>
+      <c r="BR8" t="n">
+        <v/>
+      </c>
+      <c r="BS8" t="n">
+        <v/>
+      </c>
+      <c r="BT8" t="n">
+        <v/>
+      </c>
       <c r="BU8" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
+      <c r="BV8" t="n">
+        <v/>
+      </c>
+      <c r="BW8" t="n">
+        <v/>
+      </c>
       <c r="BX8" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
-      <c r="CB8" t="inlineStr"/>
+      <c r="BY8" t="n">
+        <v/>
+      </c>
+      <c r="BZ8" t="n">
+        <v/>
+      </c>
+      <c r="CA8" t="n">
+        <v/>
+      </c>
+      <c r="CB8" t="n">
+        <v/>
+      </c>
       <c r="CC8" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="inlineStr"/>
-      <c r="CF8" t="inlineStr"/>
+      <c r="CD8" t="n">
+        <v/>
+      </c>
+      <c r="CE8" t="n">
+        <v/>
+      </c>
+      <c r="CF8" t="n">
+        <v/>
+      </c>
       <c r="CG8" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="inlineStr"/>
+      <c r="CH8" t="n">
+        <v/>
+      </c>
+      <c r="CI8" t="n">
+        <v/>
+      </c>
+      <c r="CJ8" t="n">
+        <v/>
+      </c>
       <c r="CK8" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
+      <c r="CL8" t="n">
+        <v/>
+      </c>
+      <c r="CM8" t="n">
+        <v/>
+      </c>
       <c r="CN8" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -25983,7 +26517,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -25991,7 +26525,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v/>
+      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -26154,110 +26690,188 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr"/>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v/>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
       <c r="AR9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
+      <c r="AS9" t="n">
+        <v/>
+      </c>
+      <c r="AT9" t="n">
+        <v/>
+      </c>
+      <c r="AU9" t="n">
+        <v/>
+      </c>
       <c r="AV9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
+      <c r="AW9" t="n">
+        <v/>
+      </c>
+      <c r="AX9" t="n">
+        <v/>
+      </c>
+      <c r="AY9" t="n">
+        <v/>
+      </c>
+      <c r="AZ9" t="n">
+        <v/>
+      </c>
       <c r="BA9" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+      <c r="BB9" t="n">
+        <v/>
+      </c>
+      <c r="BC9" t="n">
+        <v/>
+      </c>
+      <c r="BD9" t="n">
+        <v/>
+      </c>
       <c r="BE9" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
+      <c r="BF9" t="n">
+        <v/>
+      </c>
+      <c r="BG9" t="n">
+        <v/>
+      </c>
+      <c r="BH9" t="n">
+        <v/>
+      </c>
       <c r="BI9" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
+      <c r="BJ9" t="n">
+        <v/>
+      </c>
+      <c r="BK9" t="n">
+        <v/>
+      </c>
+      <c r="BL9" t="n">
+        <v/>
+      </c>
       <c r="BM9" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
+      <c r="BN9" t="n">
+        <v/>
+      </c>
+      <c r="BO9" t="n">
+        <v/>
+      </c>
       <c r="BP9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="inlineStr"/>
+      <c r="BQ9" t="n">
+        <v/>
+      </c>
+      <c r="BR9" t="n">
+        <v/>
+      </c>
+      <c r="BS9" t="n">
+        <v/>
+      </c>
+      <c r="BT9" t="n">
+        <v/>
+      </c>
       <c r="BU9" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
+      <c r="BV9" t="n">
+        <v/>
+      </c>
+      <c r="BW9" t="n">
+        <v/>
+      </c>
       <c r="BX9" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="inlineStr"/>
+      <c r="BY9" t="n">
+        <v/>
+      </c>
+      <c r="BZ9" t="n">
+        <v/>
+      </c>
+      <c r="CA9" t="n">
+        <v/>
+      </c>
+      <c r="CB9" t="n">
+        <v/>
+      </c>
       <c r="CC9" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD9" t="inlineStr"/>
-      <c r="CE9" t="inlineStr"/>
-      <c r="CF9" t="inlineStr"/>
+      <c r="CD9" t="n">
+        <v/>
+      </c>
+      <c r="CE9" t="n">
+        <v/>
+      </c>
+      <c r="CF9" t="n">
+        <v/>
+      </c>
       <c r="CG9" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
-      <c r="CJ9" t="inlineStr"/>
+      <c r="CH9" t="n">
+        <v/>
+      </c>
+      <c r="CI9" t="n">
+        <v/>
+      </c>
+      <c r="CJ9" t="n">
+        <v/>
+      </c>
       <c r="CK9" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
+      <c r="CL9" t="n">
+        <v/>
+      </c>
+      <c r="CM9" t="n">
+        <v/>
+      </c>
       <c r="CN9" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -26275,7 +26889,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -26283,7 +26897,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v/>
+      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -26451,82 +27067,144 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AO10" t="n">
+        <v/>
+      </c>
+      <c r="AP10" t="n">
+        <v/>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
       <c r="AR10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
+      <c r="AS10" t="n">
+        <v/>
+      </c>
+      <c r="AT10" t="n">
+        <v/>
+      </c>
+      <c r="AU10" t="n">
+        <v/>
+      </c>
       <c r="AV10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AW10" t="n">
+        <v/>
+      </c>
+      <c r="AX10" t="n">
+        <v/>
+      </c>
+      <c r="AY10" t="n">
+        <v/>
+      </c>
       <c r="AZ10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
+      <c r="BA10" t="n">
+        <v/>
+      </c>
+      <c r="BB10" t="n">
+        <v/>
+      </c>
+      <c r="BC10" t="n">
+        <v/>
+      </c>
+      <c r="BD10" t="n">
+        <v/>
+      </c>
       <c r="BE10" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
+      <c r="BF10" t="n">
+        <v/>
+      </c>
+      <c r="BG10" t="n">
+        <v/>
+      </c>
       <c r="BH10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
+      <c r="BI10" t="n">
+        <v/>
+      </c>
+      <c r="BJ10" t="n">
+        <v/>
+      </c>
+      <c r="BK10" t="n">
+        <v/>
+      </c>
       <c r="BL10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
+      <c r="BM10" t="n">
+        <v/>
+      </c>
+      <c r="BN10" t="n">
+        <v/>
+      </c>
+      <c r="BO10" t="n">
+        <v/>
+      </c>
       <c r="BP10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
+      <c r="BQ10" t="n">
+        <v/>
+      </c>
+      <c r="BR10" t="n">
+        <v/>
+      </c>
+      <c r="BS10" t="n">
+        <v/>
+      </c>
       <c r="BT10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
+      <c r="BU10" t="n">
+        <v/>
+      </c>
+      <c r="BV10" t="n">
+        <v/>
+      </c>
+      <c r="BW10" t="n">
+        <v/>
+      </c>
       <c r="BX10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="inlineStr"/>
+      <c r="BY10" t="n">
+        <v/>
+      </c>
+      <c r="BZ10" t="n">
+        <v/>
+      </c>
+      <c r="CA10" t="n">
+        <v/>
+      </c>
+      <c r="CB10" t="n">
+        <v/>
+      </c>
       <c r="CC10" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -26537,23 +27215,37 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CE10" t="inlineStr"/>
-      <c r="CF10" t="inlineStr"/>
+      <c r="CE10" t="n">
+        <v/>
+      </c>
+      <c r="CF10" t="n">
+        <v/>
+      </c>
       <c r="CG10" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
+      <c r="CH10" t="n">
+        <v/>
+      </c>
+      <c r="CI10" t="n">
+        <v/>
+      </c>
       <c r="CJ10" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK10" t="inlineStr"/>
-      <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
+      <c r="CK10" t="n">
+        <v/>
+      </c>
+      <c r="CL10" t="n">
+        <v/>
+      </c>
+      <c r="CM10" t="n">
+        <v/>
+      </c>
       <c r="CN10" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -26571,7 +27263,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -26579,7 +27271,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v/>
+      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -26742,110 +27436,188 @@
           <t>Planning to adopt</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr"/>
+      <c r="AN11" t="n">
+        <v/>
+      </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v/>
+      </c>
+      <c r="AQ11" t="n">
+        <v/>
+      </c>
+      <c r="AR11" t="n">
+        <v/>
+      </c>
       <c r="AS11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
+      <c r="AT11" t="n">
+        <v/>
+      </c>
+      <c r="AU11" t="n">
+        <v/>
+      </c>
+      <c r="AV11" t="n">
+        <v/>
+      </c>
+      <c r="AW11" t="n">
+        <v/>
+      </c>
       <c r="AX11" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
+      <c r="AY11" t="n">
+        <v/>
+      </c>
+      <c r="AZ11" t="n">
+        <v/>
+      </c>
+      <c r="BA11" t="n">
+        <v/>
+      </c>
       <c r="BB11" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
+      <c r="BC11" t="n">
+        <v/>
+      </c>
+      <c r="BD11" t="n">
+        <v/>
+      </c>
       <c r="BE11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
+      <c r="BF11" t="n">
+        <v/>
+      </c>
+      <c r="BG11" t="n">
+        <v/>
+      </c>
+      <c r="BH11" t="n">
+        <v/>
+      </c>
       <c r="BI11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
+      <c r="BJ11" t="n">
+        <v/>
+      </c>
+      <c r="BK11" t="n">
+        <v/>
+      </c>
+      <c r="BL11" t="n">
+        <v/>
+      </c>
+      <c r="BM11" t="n">
+        <v/>
+      </c>
+      <c r="BN11" t="n">
+        <v/>
+      </c>
       <c r="BO11" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
+      <c r="BP11" t="n">
+        <v/>
+      </c>
+      <c r="BQ11" t="n">
+        <v/>
+      </c>
+      <c r="BR11" t="n">
+        <v/>
+      </c>
       <c r="BS11" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BT11" t="inlineStr"/>
+      <c r="BT11" t="n">
+        <v/>
+      </c>
       <c r="BU11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
-      <c r="BX11" t="inlineStr"/>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="inlineStr"/>
+      <c r="BV11" t="n">
+        <v/>
+      </c>
+      <c r="BW11" t="n">
+        <v/>
+      </c>
+      <c r="BX11" t="n">
+        <v/>
+      </c>
+      <c r="BY11" t="n">
+        <v/>
+      </c>
+      <c r="BZ11" t="n">
+        <v/>
+      </c>
       <c r="CA11" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CB11" t="inlineStr"/>
+      <c r="CB11" t="n">
+        <v/>
+      </c>
       <c r="CC11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD11" t="inlineStr"/>
-      <c r="CE11" t="inlineStr"/>
-      <c r="CF11" t="inlineStr"/>
+      <c r="CD11" t="n">
+        <v/>
+      </c>
+      <c r="CE11" t="n">
+        <v/>
+      </c>
+      <c r="CF11" t="n">
+        <v/>
+      </c>
       <c r="CG11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH11" t="inlineStr"/>
-      <c r="CI11" t="inlineStr"/>
-      <c r="CJ11" t="inlineStr"/>
+      <c r="CH11" t="n">
+        <v/>
+      </c>
+      <c r="CI11" t="n">
+        <v/>
+      </c>
+      <c r="CJ11" t="n">
+        <v/>
+      </c>
       <c r="CK11" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
+      <c r="CL11" t="n">
+        <v/>
+      </c>
+      <c r="CM11" t="n">
+        <v/>
+      </c>
       <c r="CN11" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -26863,7 +27635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -26871,7 +27643,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v/>
+      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -27039,105 +27813,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
+      <c r="AO12" t="n">
+        <v/>
+      </c>
+      <c r="AP12" t="n">
+        <v/>
+      </c>
+      <c r="AQ12" t="n">
+        <v/>
+      </c>
       <c r="AR12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
+      <c r="AS12" t="n">
+        <v/>
+      </c>
+      <c r="AT12" t="n">
+        <v/>
+      </c>
+      <c r="AU12" t="n">
+        <v/>
+      </c>
       <c r="AV12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
+      <c r="AW12" t="n">
+        <v/>
+      </c>
+      <c r="AX12" t="n">
+        <v/>
+      </c>
+      <c r="AY12" t="n">
+        <v/>
+      </c>
       <c r="AZ12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
+      <c r="BA12" t="n">
+        <v/>
+      </c>
+      <c r="BB12" t="n">
+        <v/>
+      </c>
+      <c r="BC12" t="n">
+        <v/>
+      </c>
+      <c r="BD12" t="n">
+        <v/>
+      </c>
       <c r="BE12" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF12" t="inlineStr"/>
-      <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr"/>
+      <c r="BF12" t="n">
+        <v/>
+      </c>
+      <c r="BG12" t="n">
+        <v/>
+      </c>
+      <c r="BH12" t="n">
+        <v/>
+      </c>
       <c r="BI12" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
+      <c r="BJ12" t="n">
+        <v/>
+      </c>
+      <c r="BK12" t="n">
+        <v/>
+      </c>
       <c r="BL12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr"/>
-      <c r="BO12" t="inlineStr"/>
+      <c r="BM12" t="n">
+        <v/>
+      </c>
+      <c r="BN12" t="n">
+        <v/>
+      </c>
+      <c r="BO12" t="n">
+        <v/>
+      </c>
       <c r="BP12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="inlineStr"/>
+      <c r="BQ12" t="n">
+        <v/>
+      </c>
+      <c r="BR12" t="n">
+        <v/>
+      </c>
+      <c r="BS12" t="n">
+        <v/>
+      </c>
       <c r="BT12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU12" t="inlineStr"/>
-      <c r="BV12" t="inlineStr"/>
-      <c r="BW12" t="inlineStr"/>
+      <c r="BU12" t="n">
+        <v/>
+      </c>
+      <c r="BV12" t="n">
+        <v/>
+      </c>
+      <c r="BW12" t="n">
+        <v/>
+      </c>
       <c r="BX12" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
-      <c r="CA12" t="inlineStr"/>
-      <c r="CB12" t="inlineStr"/>
+      <c r="BY12" t="n">
+        <v/>
+      </c>
+      <c r="BZ12" t="n">
+        <v/>
+      </c>
+      <c r="CA12" t="n">
+        <v/>
+      </c>
+      <c r="CB12" t="n">
+        <v/>
+      </c>
       <c r="CC12" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD12" t="inlineStr"/>
-      <c r="CE12" t="inlineStr"/>
-      <c r="CF12" t="inlineStr"/>
-      <c r="CG12" t="inlineStr"/>
-      <c r="CH12" t="inlineStr"/>
+      <c r="CD12" t="n">
+        <v/>
+      </c>
+      <c r="CE12" t="n">
+        <v/>
+      </c>
+      <c r="CF12" t="n">
+        <v/>
+      </c>
+      <c r="CG12" t="n">
+        <v/>
+      </c>
+      <c r="CH12" t="n">
+        <v/>
+      </c>
       <c r="CI12" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CJ12" t="inlineStr"/>
+      <c r="CJ12" t="n">
+        <v/>
+      </c>
       <c r="CK12" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
+      <c r="CL12" t="n">
+        <v/>
+      </c>
+      <c r="CM12" t="n">
+        <v/>
+      </c>
       <c r="CN12" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -27155,7 +28007,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -27163,7 +28015,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v/>
+      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -27326,110 +28180,188 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
+      <c r="AN13" t="n">
+        <v/>
+      </c>
+      <c r="AO13" t="n">
+        <v/>
+      </c>
+      <c r="AP13" t="n">
+        <v/>
+      </c>
       <c r="AQ13" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
+      <c r="AR13" t="n">
+        <v/>
+      </c>
+      <c r="AS13" t="n">
+        <v/>
+      </c>
+      <c r="AT13" t="n">
+        <v/>
+      </c>
       <c r="AU13" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
+      <c r="AV13" t="n">
+        <v/>
+      </c>
+      <c r="AW13" t="n">
+        <v/>
+      </c>
+      <c r="AX13" t="n">
+        <v/>
+      </c>
       <c r="AY13" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr"/>
+      <c r="AZ13" t="n">
+        <v/>
+      </c>
       <c r="BA13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BB13" t="n">
+        <v/>
+      </c>
+      <c r="BC13" t="n">
+        <v/>
+      </c>
+      <c r="BD13" t="n">
+        <v/>
+      </c>
       <c r="BE13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF13" t="inlineStr"/>
-      <c r="BG13" t="inlineStr"/>
-      <c r="BH13" t="inlineStr"/>
+      <c r="BF13" t="n">
+        <v/>
+      </c>
+      <c r="BG13" t="n">
+        <v/>
+      </c>
+      <c r="BH13" t="n">
+        <v/>
+      </c>
       <c r="BI13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
+      <c r="BJ13" t="n">
+        <v/>
+      </c>
+      <c r="BK13" t="n">
+        <v/>
+      </c>
+      <c r="BL13" t="n">
+        <v/>
+      </c>
       <c r="BM13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="inlineStr"/>
+      <c r="BN13" t="n">
+        <v/>
+      </c>
+      <c r="BO13" t="n">
+        <v/>
+      </c>
+      <c r="BP13" t="n">
+        <v/>
+      </c>
+      <c r="BQ13" t="n">
+        <v/>
+      </c>
+      <c r="BR13" t="n">
+        <v/>
+      </c>
       <c r="BS13" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BT13" t="inlineStr"/>
+      <c r="BT13" t="n">
+        <v/>
+      </c>
       <c r="BU13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
+      <c r="BV13" t="n">
+        <v/>
+      </c>
+      <c r="BW13" t="n">
+        <v/>
+      </c>
+      <c r="BX13" t="n">
+        <v/>
+      </c>
       <c r="BY13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ13" t="inlineStr"/>
-      <c r="CA13" t="inlineStr"/>
-      <c r="CB13" t="inlineStr"/>
+      <c r="BZ13" t="n">
+        <v/>
+      </c>
+      <c r="CA13" t="n">
+        <v/>
+      </c>
+      <c r="CB13" t="n">
+        <v/>
+      </c>
       <c r="CC13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD13" t="inlineStr"/>
-      <c r="CE13" t="inlineStr"/>
-      <c r="CF13" t="inlineStr"/>
+      <c r="CD13" t="n">
+        <v/>
+      </c>
+      <c r="CE13" t="n">
+        <v/>
+      </c>
+      <c r="CF13" t="n">
+        <v/>
+      </c>
       <c r="CG13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
-      <c r="CJ13" t="inlineStr"/>
+      <c r="CH13" t="n">
+        <v/>
+      </c>
+      <c r="CI13" t="n">
+        <v/>
+      </c>
+      <c r="CJ13" t="n">
+        <v/>
+      </c>
       <c r="CK13" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
+      <c r="CL13" t="n">
+        <v/>
+      </c>
+      <c r="CM13" t="n">
+        <v/>
+      </c>
       <c r="CN13" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -27447,7 +28379,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -27455,7 +28387,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v/>
+      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -27623,105 +28557,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
+      <c r="AO14" t="n">
+        <v/>
+      </c>
+      <c r="AP14" t="n">
+        <v/>
+      </c>
+      <c r="AQ14" t="n">
+        <v/>
+      </c>
       <c r="AR14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
+      <c r="AS14" t="n">
+        <v/>
+      </c>
+      <c r="AT14" t="n">
+        <v/>
+      </c>
+      <c r="AU14" t="n">
+        <v/>
+      </c>
       <c r="AV14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
+      <c r="AW14" t="n">
+        <v/>
+      </c>
+      <c r="AX14" t="n">
+        <v/>
+      </c>
+      <c r="AY14" t="n">
+        <v/>
+      </c>
+      <c r="AZ14" t="n">
+        <v/>
+      </c>
       <c r="BA14" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
+      <c r="BB14" t="n">
+        <v/>
+      </c>
+      <c r="BC14" t="n">
+        <v/>
+      </c>
+      <c r="BD14" t="n">
+        <v/>
+      </c>
       <c r="BE14" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF14" t="inlineStr"/>
-      <c r="BG14" t="inlineStr"/>
+      <c r="BF14" t="n">
+        <v/>
+      </c>
+      <c r="BG14" t="n">
+        <v/>
+      </c>
       <c r="BH14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
+      <c r="BI14" t="n">
+        <v/>
+      </c>
+      <c r="BJ14" t="n">
+        <v/>
+      </c>
+      <c r="BK14" t="n">
+        <v/>
+      </c>
       <c r="BL14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr"/>
+      <c r="BM14" t="n">
+        <v/>
+      </c>
+      <c r="BN14" t="n">
+        <v/>
+      </c>
+      <c r="BO14" t="n">
+        <v/>
+      </c>
+      <c r="BP14" t="n">
+        <v/>
+      </c>
       <c r="BQ14" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr"/>
-      <c r="BT14" t="inlineStr"/>
+      <c r="BR14" t="n">
+        <v/>
+      </c>
+      <c r="BS14" t="n">
+        <v/>
+      </c>
+      <c r="BT14" t="n">
+        <v/>
+      </c>
       <c r="BU14" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="inlineStr"/>
+      <c r="BV14" t="n">
+        <v/>
+      </c>
+      <c r="BW14" t="n">
+        <v/>
+      </c>
       <c r="BX14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
-      <c r="CA14" t="inlineStr"/>
+      <c r="BY14" t="n">
+        <v/>
+      </c>
+      <c r="BZ14" t="n">
+        <v/>
+      </c>
+      <c r="CA14" t="n">
+        <v/>
+      </c>
       <c r="CB14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr"/>
-      <c r="CE14" t="inlineStr"/>
+      <c r="CC14" t="n">
+        <v/>
+      </c>
+      <c r="CD14" t="n">
+        <v/>
+      </c>
+      <c r="CE14" t="n">
+        <v/>
+      </c>
       <c r="CF14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG14" t="inlineStr"/>
-      <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr"/>
+      <c r="CG14" t="n">
+        <v/>
+      </c>
+      <c r="CH14" t="n">
+        <v/>
+      </c>
+      <c r="CI14" t="n">
+        <v/>
+      </c>
       <c r="CJ14" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK14" t="inlineStr"/>
-      <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
+      <c r="CK14" t="n">
+        <v/>
+      </c>
+      <c r="CL14" t="n">
+        <v/>
+      </c>
+      <c r="CM14" t="n">
+        <v/>
+      </c>
       <c r="CN14" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -27739,7 +28751,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -27747,7 +28759,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v/>
+      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -27915,105 +28929,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+      <c r="AO15" t="n">
+        <v/>
+      </c>
+      <c r="AP15" t="n">
+        <v/>
+      </c>
+      <c r="AQ15" t="n">
+        <v/>
+      </c>
       <c r="AR15" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
+      <c r="AS15" t="n">
+        <v/>
+      </c>
+      <c r="AT15" t="n">
+        <v/>
+      </c>
+      <c r="AU15" t="n">
+        <v/>
+      </c>
       <c r="AV15" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
+      <c r="AW15" t="n">
+        <v/>
+      </c>
+      <c r="AX15" t="n">
+        <v/>
+      </c>
+      <c r="AY15" t="n">
+        <v/>
+      </c>
       <c r="AZ15" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
+      <c r="BA15" t="n">
+        <v/>
+      </c>
+      <c r="BB15" t="n">
+        <v/>
+      </c>
+      <c r="BC15" t="n">
+        <v/>
+      </c>
       <c r="BD15" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-      <c r="BG15" t="inlineStr"/>
+      <c r="BE15" t="n">
+        <v/>
+      </c>
+      <c r="BF15" t="n">
+        <v/>
+      </c>
+      <c r="BG15" t="n">
+        <v/>
+      </c>
       <c r="BH15" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
+      <c r="BI15" t="n">
+        <v/>
+      </c>
+      <c r="BJ15" t="n">
+        <v/>
+      </c>
+      <c r="BK15" t="n">
+        <v/>
+      </c>
       <c r="BL15" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
+      <c r="BM15" t="n">
+        <v/>
+      </c>
+      <c r="BN15" t="n">
+        <v/>
+      </c>
+      <c r="BO15" t="n">
+        <v/>
+      </c>
       <c r="BP15" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ15" t="inlineStr"/>
-      <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr"/>
-      <c r="BT15" t="inlineStr"/>
+      <c r="BQ15" t="n">
+        <v/>
+      </c>
+      <c r="BR15" t="n">
+        <v/>
+      </c>
+      <c r="BS15" t="n">
+        <v/>
+      </c>
+      <c r="BT15" t="n">
+        <v/>
+      </c>
       <c r="BU15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr"/>
+      <c r="BV15" t="n">
+        <v/>
+      </c>
+      <c r="BW15" t="n">
+        <v/>
+      </c>
       <c r="BX15" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY15" t="inlineStr"/>
-      <c r="BZ15" t="inlineStr"/>
-      <c r="CA15" t="inlineStr"/>
-      <c r="CB15" t="inlineStr"/>
+      <c r="BY15" t="n">
+        <v/>
+      </c>
+      <c r="BZ15" t="n">
+        <v/>
+      </c>
+      <c r="CA15" t="n">
+        <v/>
+      </c>
+      <c r="CB15" t="n">
+        <v/>
+      </c>
       <c r="CC15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD15" t="inlineStr"/>
-      <c r="CE15" t="inlineStr"/>
+      <c r="CD15" t="n">
+        <v/>
+      </c>
+      <c r="CE15" t="n">
+        <v/>
+      </c>
       <c r="CF15" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG15" t="inlineStr"/>
-      <c r="CH15" t="inlineStr"/>
-      <c r="CI15" t="inlineStr"/>
-      <c r="CJ15" t="inlineStr"/>
+      <c r="CG15" t="n">
+        <v/>
+      </c>
+      <c r="CH15" t="n">
+        <v/>
+      </c>
+      <c r="CI15" t="n">
+        <v/>
+      </c>
+      <c r="CJ15" t="n">
+        <v/>
+      </c>
       <c r="CK15" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr"/>
+      <c r="CL15" t="n">
+        <v/>
+      </c>
+      <c r="CM15" t="n">
+        <v/>
+      </c>
       <c r="CN15" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -28031,7 +29123,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -28039,7 +29131,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v/>
+      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
@@ -28207,105 +29301,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
+      <c r="AO16" t="n">
+        <v/>
+      </c>
+      <c r="AP16" t="n">
+        <v/>
+      </c>
+      <c r="AQ16" t="n">
+        <v/>
+      </c>
       <c r="AR16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
+      <c r="AS16" t="n">
+        <v/>
+      </c>
+      <c r="AT16" t="n">
+        <v/>
+      </c>
+      <c r="AU16" t="n">
+        <v/>
+      </c>
       <c r="AV16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
+      <c r="AW16" t="n">
+        <v/>
+      </c>
+      <c r="AX16" t="n">
+        <v/>
+      </c>
+      <c r="AY16" t="n">
+        <v/>
+      </c>
       <c r="AZ16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
+      <c r="BA16" t="n">
+        <v/>
+      </c>
+      <c r="BB16" t="n">
+        <v/>
+      </c>
+      <c r="BC16" t="n">
+        <v/>
+      </c>
+      <c r="BD16" t="n">
+        <v/>
+      </c>
       <c r="BE16" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF16" t="inlineStr"/>
-      <c r="BG16" t="inlineStr"/>
+      <c r="BF16" t="n">
+        <v/>
+      </c>
+      <c r="BG16" t="n">
+        <v/>
+      </c>
       <c r="BH16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
+      <c r="BI16" t="n">
+        <v/>
+      </c>
+      <c r="BJ16" t="n">
+        <v/>
+      </c>
+      <c r="BK16" t="n">
+        <v/>
+      </c>
       <c r="BL16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM16" t="inlineStr"/>
-      <c r="BN16" t="inlineStr"/>
-      <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="inlineStr"/>
+      <c r="BM16" t="n">
+        <v/>
+      </c>
+      <c r="BN16" t="n">
+        <v/>
+      </c>
+      <c r="BO16" t="n">
+        <v/>
+      </c>
+      <c r="BP16" t="n">
+        <v/>
+      </c>
       <c r="BQ16" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="inlineStr"/>
+      <c r="BR16" t="n">
+        <v/>
+      </c>
+      <c r="BS16" t="n">
+        <v/>
+      </c>
       <c r="BT16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU16" t="inlineStr"/>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
+      <c r="BU16" t="n">
+        <v/>
+      </c>
+      <c r="BV16" t="n">
+        <v/>
+      </c>
+      <c r="BW16" t="n">
+        <v/>
+      </c>
       <c r="BX16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY16" t="inlineStr"/>
-      <c r="BZ16" t="inlineStr"/>
-      <c r="CA16" t="inlineStr"/>
-      <c r="CB16" t="inlineStr"/>
+      <c r="BY16" t="n">
+        <v/>
+      </c>
+      <c r="BZ16" t="n">
+        <v/>
+      </c>
+      <c r="CA16" t="n">
+        <v/>
+      </c>
+      <c r="CB16" t="n">
+        <v/>
+      </c>
       <c r="CC16" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD16" t="inlineStr"/>
-      <c r="CE16" t="inlineStr"/>
+      <c r="CD16" t="n">
+        <v/>
+      </c>
+      <c r="CE16" t="n">
+        <v/>
+      </c>
       <c r="CF16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
+      <c r="CG16" t="n">
+        <v/>
+      </c>
+      <c r="CH16" t="n">
+        <v/>
+      </c>
+      <c r="CI16" t="n">
+        <v/>
+      </c>
       <c r="CJ16" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
+      <c r="CK16" t="n">
+        <v/>
+      </c>
+      <c r="CL16" t="n">
+        <v/>
+      </c>
+      <c r="CM16" t="n">
+        <v/>
+      </c>
       <c r="CN16" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -28323,7 +29495,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -28331,7 +29503,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v/>
+      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -28499,105 +29673,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
+      <c r="AO17" t="n">
+        <v/>
+      </c>
+      <c r="AP17" t="n">
+        <v/>
+      </c>
+      <c r="AQ17" t="n">
+        <v/>
+      </c>
       <c r="AR17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
+      <c r="AS17" t="n">
+        <v/>
+      </c>
+      <c r="AT17" t="n">
+        <v/>
+      </c>
+      <c r="AU17" t="n">
+        <v/>
+      </c>
       <c r="AV17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
+      <c r="AW17" t="n">
+        <v/>
+      </c>
+      <c r="AX17" t="n">
+        <v/>
+      </c>
+      <c r="AY17" t="n">
+        <v/>
+      </c>
+      <c r="AZ17" t="n">
+        <v/>
+      </c>
       <c r="BA17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
+      <c r="BB17" t="n">
+        <v/>
+      </c>
+      <c r="BC17" t="n">
+        <v/>
+      </c>
+      <c r="BD17" t="n">
+        <v/>
+      </c>
       <c r="BE17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
+      <c r="BF17" t="n">
+        <v/>
+      </c>
+      <c r="BG17" t="n">
+        <v/>
+      </c>
+      <c r="BH17" t="n">
+        <v/>
+      </c>
       <c r="BI17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
+      <c r="BJ17" t="n">
+        <v/>
+      </c>
+      <c r="BK17" t="n">
+        <v/>
+      </c>
+      <c r="BL17" t="n">
+        <v/>
+      </c>
+      <c r="BM17" t="n">
+        <v/>
+      </c>
+      <c r="BN17" t="n">
+        <v/>
+      </c>
       <c r="BO17" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP17" t="inlineStr"/>
+      <c r="BP17" t="n">
+        <v/>
+      </c>
       <c r="BQ17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="inlineStr"/>
-      <c r="BT17" t="inlineStr"/>
+      <c r="BR17" t="n">
+        <v/>
+      </c>
+      <c r="BS17" t="n">
+        <v/>
+      </c>
+      <c r="BT17" t="n">
+        <v/>
+      </c>
       <c r="BU17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
-      <c r="BX17" t="inlineStr"/>
+      <c r="BV17" t="n">
+        <v/>
+      </c>
+      <c r="BW17" t="n">
+        <v/>
+      </c>
+      <c r="BX17" t="n">
+        <v/>
+      </c>
       <c r="BY17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="inlineStr"/>
+      <c r="BZ17" t="n">
+        <v/>
+      </c>
+      <c r="CA17" t="n">
+        <v/>
+      </c>
+      <c r="CB17" t="n">
+        <v/>
+      </c>
       <c r="CC17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD17" t="inlineStr"/>
-      <c r="CE17" t="inlineStr"/>
+      <c r="CD17" t="n">
+        <v/>
+      </c>
+      <c r="CE17" t="n">
+        <v/>
+      </c>
       <c r="CF17" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG17" t="inlineStr"/>
-      <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr"/>
-      <c r="CJ17" t="inlineStr"/>
+      <c r="CG17" t="n">
+        <v/>
+      </c>
+      <c r="CH17" t="n">
+        <v/>
+      </c>
+      <c r="CI17" t="n">
+        <v/>
+      </c>
+      <c r="CJ17" t="n">
+        <v/>
+      </c>
       <c r="CK17" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
+      <c r="CL17" t="n">
+        <v/>
+      </c>
+      <c r="CM17" t="n">
+        <v/>
+      </c>
       <c r="CN17" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -28615,7 +29867,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -28623,7 +29875,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v/>
+      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
@@ -28786,17 +30040,29 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
+      <c r="AN18" t="n">
+        <v/>
+      </c>
+      <c r="AO18" t="n">
+        <v/>
+      </c>
+      <c r="AP18" t="n">
+        <v/>
+      </c>
       <c r="AQ18" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
+      <c r="AR18" t="n">
+        <v/>
+      </c>
+      <c r="AS18" t="n">
+        <v/>
+      </c>
+      <c r="AT18" t="n">
+        <v/>
+      </c>
       <c r="AU18" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -28807,89 +30073,155 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
+      <c r="AW18" t="n">
+        <v/>
+      </c>
+      <c r="AX18" t="n">
+        <v/>
+      </c>
+      <c r="AY18" t="n">
+        <v/>
+      </c>
+      <c r="AZ18" t="n">
+        <v/>
+      </c>
       <c r="BA18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
+      <c r="BB18" t="n">
+        <v/>
+      </c>
+      <c r="BC18" t="n">
+        <v/>
+      </c>
+      <c r="BD18" t="n">
+        <v/>
+      </c>
       <c r="BE18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="inlineStr"/>
+      <c r="BF18" t="n">
+        <v/>
+      </c>
+      <c r="BG18" t="n">
+        <v/>
+      </c>
+      <c r="BH18" t="n">
+        <v/>
+      </c>
       <c r="BI18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr"/>
+      <c r="BJ18" t="n">
+        <v/>
+      </c>
+      <c r="BK18" t="n">
+        <v/>
+      </c>
+      <c r="BL18" t="n">
+        <v/>
+      </c>
+      <c r="BM18" t="n">
+        <v/>
+      </c>
+      <c r="BN18" t="n">
+        <v/>
+      </c>
       <c r="BO18" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP18" t="inlineStr"/>
+      <c r="BP18" t="n">
+        <v/>
+      </c>
       <c r="BQ18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="inlineStr"/>
-      <c r="BT18" t="inlineStr"/>
-      <c r="BU18" t="inlineStr"/>
-      <c r="BV18" t="inlineStr"/>
+      <c r="BR18" t="n">
+        <v/>
+      </c>
+      <c r="BS18" t="n">
+        <v/>
+      </c>
+      <c r="BT18" t="n">
+        <v/>
+      </c>
+      <c r="BU18" t="n">
+        <v/>
+      </c>
+      <c r="BV18" t="n">
+        <v/>
+      </c>
       <c r="BW18" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BX18" t="inlineStr"/>
+      <c r="BX18" t="n">
+        <v/>
+      </c>
       <c r="BY18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ18" t="inlineStr"/>
-      <c r="CA18" t="inlineStr"/>
-      <c r="CB18" t="inlineStr"/>
+      <c r="BZ18" t="n">
+        <v/>
+      </c>
+      <c r="CA18" t="n">
+        <v/>
+      </c>
+      <c r="CB18" t="n">
+        <v/>
+      </c>
       <c r="CC18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD18" t="inlineStr"/>
-      <c r="CE18" t="inlineStr"/>
-      <c r="CF18" t="inlineStr"/>
+      <c r="CD18" t="n">
+        <v/>
+      </c>
+      <c r="CE18" t="n">
+        <v/>
+      </c>
+      <c r="CF18" t="n">
+        <v/>
+      </c>
       <c r="CG18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH18" t="inlineStr"/>
-      <c r="CI18" t="inlineStr"/>
-      <c r="CJ18" t="inlineStr"/>
+      <c r="CH18" t="n">
+        <v/>
+      </c>
+      <c r="CI18" t="n">
+        <v/>
+      </c>
+      <c r="CJ18" t="n">
+        <v/>
+      </c>
       <c r="CK18" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL18" t="inlineStr"/>
-      <c r="CM18" t="inlineStr"/>
+      <c r="CL18" t="n">
+        <v/>
+      </c>
+      <c r="CM18" t="n">
+        <v/>
+      </c>
       <c r="CN18" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -28907,7 +30239,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -28915,7 +30247,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v/>
+      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
@@ -29078,110 +30412,188 @@
           <t>Already in place</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
+      <c r="AN19" t="n">
+        <v/>
+      </c>
+      <c r="AO19" t="n">
+        <v/>
+      </c>
+      <c r="AP19" t="n">
+        <v/>
+      </c>
       <c r="AQ19" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
+      <c r="AR19" t="n">
+        <v/>
+      </c>
+      <c r="AS19" t="n">
+        <v/>
+      </c>
+      <c r="AT19" t="n">
+        <v/>
+      </c>
       <c r="AU19" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
+      <c r="AV19" t="n">
+        <v/>
+      </c>
+      <c r="AW19" t="n">
+        <v/>
+      </c>
+      <c r="AX19" t="n">
+        <v/>
+      </c>
       <c r="AY19" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AZ19" t="inlineStr"/>
+      <c r="AZ19" t="n">
+        <v/>
+      </c>
       <c r="BA19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
+      <c r="BB19" t="n">
+        <v/>
+      </c>
+      <c r="BC19" t="n">
+        <v/>
+      </c>
+      <c r="BD19" t="n">
+        <v/>
+      </c>
       <c r="BE19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF19" t="inlineStr"/>
-      <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="inlineStr"/>
+      <c r="BF19" t="n">
+        <v/>
+      </c>
+      <c r="BG19" t="n">
+        <v/>
+      </c>
+      <c r="BH19" t="n">
+        <v/>
+      </c>
       <c r="BI19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
+      <c r="BJ19" t="n">
+        <v/>
+      </c>
+      <c r="BK19" t="n">
+        <v/>
+      </c>
       <c r="BL19" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM19" t="inlineStr"/>
-      <c r="BN19" t="inlineStr"/>
-      <c r="BO19" t="inlineStr"/>
-      <c r="BP19" t="inlineStr"/>
+      <c r="BM19" t="n">
+        <v/>
+      </c>
+      <c r="BN19" t="n">
+        <v/>
+      </c>
+      <c r="BO19" t="n">
+        <v/>
+      </c>
+      <c r="BP19" t="n">
+        <v/>
+      </c>
       <c r="BQ19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="inlineStr"/>
-      <c r="BT19" t="inlineStr"/>
+      <c r="BR19" t="n">
+        <v/>
+      </c>
+      <c r="BS19" t="n">
+        <v/>
+      </c>
+      <c r="BT19" t="n">
+        <v/>
+      </c>
       <c r="BU19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV19" t="inlineStr"/>
-      <c r="BW19" t="inlineStr"/>
-      <c r="BX19" t="inlineStr"/>
+      <c r="BV19" t="n">
+        <v/>
+      </c>
+      <c r="BW19" t="n">
+        <v/>
+      </c>
+      <c r="BX19" t="n">
+        <v/>
+      </c>
       <c r="BY19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ19" t="inlineStr"/>
-      <c r="CA19" t="inlineStr"/>
-      <c r="CB19" t="inlineStr"/>
+      <c r="BZ19" t="n">
+        <v/>
+      </c>
+      <c r="CA19" t="n">
+        <v/>
+      </c>
+      <c r="CB19" t="n">
+        <v/>
+      </c>
       <c r="CC19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD19" t="inlineStr"/>
-      <c r="CE19" t="inlineStr"/>
-      <c r="CF19" t="inlineStr"/>
+      <c r="CD19" t="n">
+        <v/>
+      </c>
+      <c r="CE19" t="n">
+        <v/>
+      </c>
+      <c r="CF19" t="n">
+        <v/>
+      </c>
       <c r="CG19" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH19" t="inlineStr"/>
-      <c r="CI19" t="inlineStr"/>
+      <c r="CH19" t="n">
+        <v/>
+      </c>
+      <c r="CI19" t="n">
+        <v/>
+      </c>
       <c r="CJ19" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK19" t="inlineStr"/>
-      <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr"/>
+      <c r="CK19" t="n">
+        <v/>
+      </c>
+      <c r="CL19" t="n">
+        <v/>
+      </c>
+      <c r="CM19" t="n">
+        <v/>
+      </c>
       <c r="CN19" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -29199,7 +30611,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -29207,7 +30619,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v/>
+      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -29375,60 +30789,108 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
+      <c r="AO20" t="n">
+        <v/>
+      </c>
+      <c r="AP20" t="n">
+        <v/>
+      </c>
+      <c r="AQ20" t="n">
+        <v/>
+      </c>
       <c r="AR20" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
+      <c r="AS20" t="n">
+        <v/>
+      </c>
+      <c r="AT20" t="n">
+        <v/>
+      </c>
+      <c r="AU20" t="n">
+        <v/>
+      </c>
       <c r="AV20" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
+      <c r="AW20" t="n">
+        <v/>
+      </c>
+      <c r="AX20" t="n">
+        <v/>
+      </c>
+      <c r="AY20" t="n">
+        <v/>
+      </c>
       <c r="AZ20" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
+      <c r="BA20" t="n">
+        <v/>
+      </c>
+      <c r="BB20" t="n">
+        <v/>
+      </c>
+      <c r="BC20" t="n">
+        <v/>
+      </c>
+      <c r="BD20" t="n">
+        <v/>
+      </c>
       <c r="BE20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF20" t="inlineStr"/>
-      <c r="BG20" t="inlineStr"/>
+      <c r="BF20" t="n">
+        <v/>
+      </c>
+      <c r="BG20" t="n">
+        <v/>
+      </c>
       <c r="BH20" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI20" t="inlineStr"/>
-      <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
-      <c r="BN20" t="inlineStr"/>
+      <c r="BI20" t="n">
+        <v/>
+      </c>
+      <c r="BJ20" t="n">
+        <v/>
+      </c>
+      <c r="BK20" t="n">
+        <v/>
+      </c>
+      <c r="BL20" t="n">
+        <v/>
+      </c>
+      <c r="BM20" t="n">
+        <v/>
+      </c>
+      <c r="BN20" t="n">
+        <v/>
+      </c>
       <c r="BO20" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP20" t="inlineStr"/>
-      <c r="BQ20" t="inlineStr"/>
-      <c r="BR20" t="inlineStr"/>
+      <c r="BP20" t="n">
+        <v/>
+      </c>
+      <c r="BQ20" t="n">
+        <v/>
+      </c>
+      <c r="BR20" t="n">
+        <v/>
+      </c>
       <c r="BS20" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -29439,8 +30901,12 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU20" t="inlineStr"/>
-      <c r="BV20" t="inlineStr"/>
+      <c r="BU20" t="n">
+        <v/>
+      </c>
+      <c r="BV20" t="n">
+        <v/>
+      </c>
       <c r="BW20" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -29451,33 +30917,57 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY20" t="inlineStr"/>
-      <c r="BZ20" t="inlineStr"/>
-      <c r="CA20" t="inlineStr"/>
-      <c r="CB20" t="inlineStr"/>
+      <c r="BY20" t="n">
+        <v/>
+      </c>
+      <c r="BZ20" t="n">
+        <v/>
+      </c>
+      <c r="CA20" t="n">
+        <v/>
+      </c>
+      <c r="CB20" t="n">
+        <v/>
+      </c>
       <c r="CC20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD20" t="inlineStr"/>
-      <c r="CE20" t="inlineStr"/>
-      <c r="CF20" t="inlineStr"/>
-      <c r="CG20" t="inlineStr"/>
-      <c r="CH20" t="inlineStr"/>
+      <c r="CD20" t="n">
+        <v/>
+      </c>
+      <c r="CE20" t="n">
+        <v/>
+      </c>
+      <c r="CF20" t="n">
+        <v/>
+      </c>
+      <c r="CG20" t="n">
+        <v/>
+      </c>
+      <c r="CH20" t="n">
+        <v/>
+      </c>
       <c r="CI20" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CJ20" t="inlineStr"/>
+      <c r="CJ20" t="n">
+        <v/>
+      </c>
       <c r="CK20" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL20" t="inlineStr"/>
-      <c r="CM20" t="inlineStr"/>
+      <c r="CL20" t="n">
+        <v/>
+      </c>
+      <c r="CM20" t="n">
+        <v/>
+      </c>
       <c r="CN20" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -29495,7 +30985,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -29503,7 +30993,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v/>
+      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
@@ -29671,105 +31163,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+      <c r="AO21" t="n">
+        <v/>
+      </c>
+      <c r="AP21" t="n">
+        <v/>
+      </c>
+      <c r="AQ21" t="n">
+        <v/>
+      </c>
       <c r="AR21" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
+      <c r="AS21" t="n">
+        <v/>
+      </c>
+      <c r="AT21" t="n">
+        <v/>
+      </c>
+      <c r="AU21" t="n">
+        <v/>
+      </c>
       <c r="AV21" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
-      <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
+      <c r="AW21" t="n">
+        <v/>
+      </c>
+      <c r="AX21" t="n">
+        <v/>
+      </c>
+      <c r="AY21" t="n">
+        <v/>
+      </c>
+      <c r="AZ21" t="n">
+        <v/>
+      </c>
+      <c r="BA21" t="n">
+        <v/>
+      </c>
+      <c r="BB21" t="n">
+        <v/>
+      </c>
       <c r="BC21" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BD21" t="inlineStr"/>
+      <c r="BD21" t="n">
+        <v/>
+      </c>
       <c r="BE21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF21" t="inlineStr"/>
-      <c r="BG21" t="inlineStr"/>
-      <c r="BH21" t="inlineStr"/>
+      <c r="BF21" t="n">
+        <v/>
+      </c>
+      <c r="BG21" t="n">
+        <v/>
+      </c>
+      <c r="BH21" t="n">
+        <v/>
+      </c>
       <c r="BI21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="inlineStr"/>
+      <c r="BJ21" t="n">
+        <v/>
+      </c>
+      <c r="BK21" t="n">
+        <v/>
+      </c>
+      <c r="BL21" t="n">
+        <v/>
+      </c>
       <c r="BM21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BN21" t="inlineStr"/>
-      <c r="BO21" t="inlineStr"/>
-      <c r="BP21" t="inlineStr"/>
+      <c r="BN21" t="n">
+        <v/>
+      </c>
+      <c r="BO21" t="n">
+        <v/>
+      </c>
+      <c r="BP21" t="n">
+        <v/>
+      </c>
       <c r="BQ21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR21" t="inlineStr"/>
-      <c r="BS21" t="inlineStr"/>
-      <c r="BT21" t="inlineStr"/>
-      <c r="BU21" t="inlineStr"/>
-      <c r="BV21" t="inlineStr"/>
+      <c r="BR21" t="n">
+        <v/>
+      </c>
+      <c r="BS21" t="n">
+        <v/>
+      </c>
+      <c r="BT21" t="n">
+        <v/>
+      </c>
+      <c r="BU21" t="n">
+        <v/>
+      </c>
+      <c r="BV21" t="n">
+        <v/>
+      </c>
       <c r="BW21" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BX21" t="inlineStr"/>
+      <c r="BX21" t="n">
+        <v/>
+      </c>
       <c r="BY21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ21" t="inlineStr"/>
-      <c r="CA21" t="inlineStr"/>
-      <c r="CB21" t="inlineStr"/>
+      <c r="BZ21" t="n">
+        <v/>
+      </c>
+      <c r="CA21" t="n">
+        <v/>
+      </c>
+      <c r="CB21" t="n">
+        <v/>
+      </c>
       <c r="CC21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD21" t="inlineStr"/>
-      <c r="CE21" t="inlineStr"/>
-      <c r="CF21" t="inlineStr"/>
+      <c r="CD21" t="n">
+        <v/>
+      </c>
+      <c r="CE21" t="n">
+        <v/>
+      </c>
+      <c r="CF21" t="n">
+        <v/>
+      </c>
       <c r="CG21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH21" t="inlineStr"/>
-      <c r="CI21" t="inlineStr"/>
-      <c r="CJ21" t="inlineStr"/>
+      <c r="CH21" t="n">
+        <v/>
+      </c>
+      <c r="CI21" t="n">
+        <v/>
+      </c>
+      <c r="CJ21" t="n">
+        <v/>
+      </c>
       <c r="CK21" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL21" t="inlineStr"/>
-      <c r="CM21" t="inlineStr"/>
+      <c r="CL21" t="n">
+        <v/>
+      </c>
+      <c r="CM21" t="n">
+        <v/>
+      </c>
       <c r="CN21" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -29787,7 +31357,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -29795,7 +31365,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v/>
+      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
@@ -29963,109 +31535,185 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
+      <c r="AO22" t="n">
+        <v/>
+      </c>
+      <c r="AP22" t="n">
+        <v/>
+      </c>
+      <c r="AQ22" t="n">
+        <v/>
+      </c>
       <c r="AR22" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
+      <c r="AS22" t="n">
+        <v/>
+      </c>
+      <c r="AT22" t="n">
+        <v/>
+      </c>
+      <c r="AU22" t="n">
+        <v/>
+      </c>
       <c r="AV22" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
+      <c r="AW22" t="n">
+        <v/>
+      </c>
+      <c r="AX22" t="n">
+        <v/>
+      </c>
+      <c r="AY22" t="n">
+        <v/>
+      </c>
+      <c r="AZ22" t="n">
+        <v/>
+      </c>
+      <c r="BA22" t="n">
+        <v/>
+      </c>
       <c r="BB22" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="inlineStr"/>
-      <c r="BE22" t="inlineStr"/>
+      <c r="BC22" t="n">
+        <v/>
+      </c>
+      <c r="BD22" t="n">
+        <v/>
+      </c>
+      <c r="BE22" t="n">
+        <v/>
+      </c>
       <c r="BF22" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="inlineStr"/>
+      <c r="BG22" t="n">
+        <v/>
+      </c>
+      <c r="BH22" t="n">
+        <v/>
+      </c>
+      <c r="BI22" t="n">
+        <v/>
+      </c>
       <c r="BJ22" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr"/>
+      <c r="BK22" t="n">
+        <v/>
+      </c>
+      <c r="BL22" t="n">
+        <v/>
+      </c>
       <c r="BM22" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BN22" t="inlineStr"/>
-      <c r="BO22" t="inlineStr"/>
-      <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="inlineStr"/>
+      <c r="BN22" t="n">
+        <v/>
+      </c>
+      <c r="BO22" t="n">
+        <v/>
+      </c>
+      <c r="BP22" t="n">
+        <v/>
+      </c>
+      <c r="BQ22" t="n">
+        <v/>
+      </c>
       <c r="BR22" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BS22" t="inlineStr"/>
-      <c r="BT22" t="inlineStr"/>
+      <c r="BS22" t="n">
+        <v/>
+      </c>
+      <c r="BT22" t="n">
+        <v/>
+      </c>
       <c r="BU22" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="inlineStr"/>
-      <c r="BX22" t="inlineStr"/>
-      <c r="BY22" t="inlineStr"/>
+      <c r="BV22" t="n">
+        <v/>
+      </c>
+      <c r="BW22" t="n">
+        <v/>
+      </c>
+      <c r="BX22" t="n">
+        <v/>
+      </c>
+      <c r="BY22" t="n">
+        <v/>
+      </c>
       <c r="BZ22" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CA22" t="inlineStr"/>
+      <c r="CA22" t="n">
+        <v/>
+      </c>
       <c r="CB22" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CC22" t="inlineStr"/>
+      <c r="CC22" t="n">
+        <v/>
+      </c>
       <c r="CD22" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CE22" t="inlineStr"/>
+      <c r="CE22" t="n">
+        <v/>
+      </c>
       <c r="CF22" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG22" t="inlineStr"/>
-      <c r="CH22" t="inlineStr"/>
-      <c r="CI22" t="inlineStr"/>
-      <c r="CJ22" t="inlineStr"/>
+      <c r="CG22" t="n">
+        <v/>
+      </c>
+      <c r="CH22" t="n">
+        <v/>
+      </c>
+      <c r="CI22" t="n">
+        <v/>
+      </c>
+      <c r="CJ22" t="n">
+        <v/>
+      </c>
       <c r="CK22" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL22" t="inlineStr"/>
-      <c r="CM22" t="inlineStr"/>
+      <c r="CL22" t="n">
+        <v/>
+      </c>
+      <c r="CM22" t="n">
+        <v/>
+      </c>
       <c r="CN22" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -30083,7 +31731,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -30091,7 +31739,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v/>
+      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -30259,105 +31909,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
+      <c r="AO23" t="n">
+        <v/>
+      </c>
+      <c r="AP23" t="n">
+        <v/>
+      </c>
+      <c r="AQ23" t="n">
+        <v/>
+      </c>
       <c r="AR23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
+      <c r="AS23" t="n">
+        <v/>
+      </c>
+      <c r="AT23" t="n">
+        <v/>
+      </c>
+      <c r="AU23" t="n">
+        <v/>
+      </c>
       <c r="AV23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
+      <c r="AW23" t="n">
+        <v/>
+      </c>
+      <c r="AX23" t="n">
+        <v/>
+      </c>
+      <c r="AY23" t="n">
+        <v/>
+      </c>
       <c r="AZ23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
+      <c r="BA23" t="n">
+        <v/>
+      </c>
+      <c r="BB23" t="n">
+        <v/>
+      </c>
+      <c r="BC23" t="n">
+        <v/>
+      </c>
       <c r="BD23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="inlineStr"/>
+      <c r="BE23" t="n">
+        <v/>
+      </c>
+      <c r="BF23" t="n">
+        <v/>
+      </c>
+      <c r="BG23" t="n">
+        <v/>
+      </c>
       <c r="BH23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI23" t="inlineStr"/>
-      <c r="BJ23" t="inlineStr"/>
-      <c r="BK23" t="inlineStr"/>
+      <c r="BI23" t="n">
+        <v/>
+      </c>
+      <c r="BJ23" t="n">
+        <v/>
+      </c>
+      <c r="BK23" t="n">
+        <v/>
+      </c>
       <c r="BL23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM23" t="inlineStr"/>
-      <c r="BN23" t="inlineStr"/>
-      <c r="BO23" t="inlineStr"/>
+      <c r="BM23" t="n">
+        <v/>
+      </c>
+      <c r="BN23" t="n">
+        <v/>
+      </c>
+      <c r="BO23" t="n">
+        <v/>
+      </c>
       <c r="BP23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ23" t="inlineStr"/>
-      <c r="BR23" t="inlineStr"/>
-      <c r="BS23" t="inlineStr"/>
+      <c r="BQ23" t="n">
+        <v/>
+      </c>
+      <c r="BR23" t="n">
+        <v/>
+      </c>
+      <c r="BS23" t="n">
+        <v/>
+      </c>
       <c r="BT23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU23" t="inlineStr"/>
-      <c r="BV23" t="inlineStr"/>
-      <c r="BW23" t="inlineStr"/>
+      <c r="BU23" t="n">
+        <v/>
+      </c>
+      <c r="BV23" t="n">
+        <v/>
+      </c>
+      <c r="BW23" t="n">
+        <v/>
+      </c>
       <c r="BX23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY23" t="inlineStr"/>
-      <c r="BZ23" t="inlineStr"/>
-      <c r="CA23" t="inlineStr"/>
-      <c r="CB23" t="inlineStr"/>
+      <c r="BY23" t="n">
+        <v/>
+      </c>
+      <c r="BZ23" t="n">
+        <v/>
+      </c>
+      <c r="CA23" t="n">
+        <v/>
+      </c>
+      <c r="CB23" t="n">
+        <v/>
+      </c>
       <c r="CC23" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD23" t="inlineStr"/>
-      <c r="CE23" t="inlineStr"/>
+      <c r="CD23" t="n">
+        <v/>
+      </c>
+      <c r="CE23" t="n">
+        <v/>
+      </c>
       <c r="CF23" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG23" t="inlineStr"/>
-      <c r="CH23" t="inlineStr"/>
-      <c r="CI23" t="inlineStr"/>
-      <c r="CJ23" t="inlineStr"/>
+      <c r="CG23" t="n">
+        <v/>
+      </c>
+      <c r="CH23" t="n">
+        <v/>
+      </c>
+      <c r="CI23" t="n">
+        <v/>
+      </c>
+      <c r="CJ23" t="n">
+        <v/>
+      </c>
       <c r="CK23" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL23" t="inlineStr"/>
-      <c r="CM23" t="inlineStr"/>
+      <c r="CL23" t="n">
+        <v/>
+      </c>
+      <c r="CM23" t="n">
+        <v/>
+      </c>
       <c r="CN23" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -30375,7 +32103,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -30383,7 +32111,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v/>
+      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
@@ -30546,110 +32276,188 @@
           <t>Already in place</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr"/>
+      <c r="AN24" t="n">
+        <v/>
+      </c>
       <c r="AO24" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
+      <c r="AP24" t="n">
+        <v/>
+      </c>
+      <c r="AQ24" t="n">
+        <v/>
+      </c>
       <c r="AR24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
+      <c r="AS24" t="n">
+        <v/>
+      </c>
+      <c r="AT24" t="n">
+        <v/>
+      </c>
+      <c r="AU24" t="n">
+        <v/>
+      </c>
       <c r="AV24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
+      <c r="AW24" t="n">
+        <v/>
+      </c>
+      <c r="AX24" t="n">
+        <v/>
+      </c>
+      <c r="AY24" t="n">
+        <v/>
+      </c>
+      <c r="AZ24" t="n">
+        <v/>
+      </c>
       <c r="BA24" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
+      <c r="BB24" t="n">
+        <v/>
+      </c>
+      <c r="BC24" t="n">
+        <v/>
+      </c>
       <c r="BD24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BE24" t="inlineStr"/>
-      <c r="BF24" t="inlineStr"/>
-      <c r="BG24" t="inlineStr"/>
-      <c r="BH24" t="inlineStr"/>
-      <c r="BI24" t="inlineStr"/>
+      <c r="BE24" t="n">
+        <v/>
+      </c>
+      <c r="BF24" t="n">
+        <v/>
+      </c>
+      <c r="BG24" t="n">
+        <v/>
+      </c>
+      <c r="BH24" t="n">
+        <v/>
+      </c>
+      <c r="BI24" t="n">
+        <v/>
+      </c>
       <c r="BJ24" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" t="inlineStr"/>
-      <c r="BM24" t="inlineStr"/>
+      <c r="BK24" t="n">
+        <v/>
+      </c>
+      <c r="BL24" t="n">
+        <v/>
+      </c>
+      <c r="BM24" t="n">
+        <v/>
+      </c>
       <c r="BN24" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BO24" t="inlineStr"/>
+      <c r="BO24" t="n">
+        <v/>
+      </c>
       <c r="BP24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BQ24" t="inlineStr"/>
-      <c r="BR24" t="inlineStr"/>
-      <c r="BS24" t="inlineStr"/>
+      <c r="BQ24" t="n">
+        <v/>
+      </c>
+      <c r="BR24" t="n">
+        <v/>
+      </c>
+      <c r="BS24" t="n">
+        <v/>
+      </c>
       <c r="BT24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU24" t="inlineStr"/>
-      <c r="BV24" t="inlineStr"/>
-      <c r="BW24" t="inlineStr"/>
+      <c r="BU24" t="n">
+        <v/>
+      </c>
+      <c r="BV24" t="n">
+        <v/>
+      </c>
+      <c r="BW24" t="n">
+        <v/>
+      </c>
       <c r="BX24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY24" t="inlineStr"/>
-      <c r="BZ24" t="inlineStr"/>
-      <c r="CA24" t="inlineStr"/>
+      <c r="BY24" t="n">
+        <v/>
+      </c>
+      <c r="BZ24" t="n">
+        <v/>
+      </c>
+      <c r="CA24" t="n">
+        <v/>
+      </c>
       <c r="CB24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CC24" t="inlineStr"/>
-      <c r="CD24" t="inlineStr"/>
-      <c r="CE24" t="inlineStr"/>
+      <c r="CC24" t="n">
+        <v/>
+      </c>
+      <c r="CD24" t="n">
+        <v/>
+      </c>
+      <c r="CE24" t="n">
+        <v/>
+      </c>
       <c r="CF24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG24" t="inlineStr"/>
-      <c r="CH24" t="inlineStr"/>
-      <c r="CI24" t="inlineStr"/>
+      <c r="CG24" t="n">
+        <v/>
+      </c>
+      <c r="CH24" t="n">
+        <v/>
+      </c>
+      <c r="CI24" t="n">
+        <v/>
+      </c>
       <c r="CJ24" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CK24" t="inlineStr"/>
-      <c r="CL24" t="inlineStr"/>
-      <c r="CM24" t="inlineStr"/>
+      <c r="CK24" t="n">
+        <v/>
+      </c>
+      <c r="CL24" t="n">
+        <v/>
+      </c>
+      <c r="CM24" t="n">
+        <v/>
+      </c>
       <c r="CN24" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -30667,7 +32475,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -30675,7 +32483,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v/>
+      </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
@@ -30838,110 +32648,188 @@
           <t>In progress</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr"/>
+      <c r="AN25" t="n">
+        <v/>
+      </c>
       <c r="AO25" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
+      <c r="AP25" t="n">
+        <v/>
+      </c>
+      <c r="AQ25" t="n">
+        <v/>
+      </c>
       <c r="AR25" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
+      <c r="AS25" t="n">
+        <v/>
+      </c>
+      <c r="AT25" t="n">
+        <v/>
+      </c>
+      <c r="AU25" t="n">
+        <v/>
+      </c>
       <c r="AV25" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
+      <c r="AW25" t="n">
+        <v/>
+      </c>
+      <c r="AX25" t="n">
+        <v/>
+      </c>
+      <c r="AY25" t="n">
+        <v/>
+      </c>
+      <c r="AZ25" t="n">
+        <v/>
+      </c>
       <c r="BA25" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr"/>
+      <c r="BB25" t="n">
+        <v/>
+      </c>
+      <c r="BC25" t="n">
+        <v/>
+      </c>
+      <c r="BD25" t="n">
+        <v/>
+      </c>
       <c r="BE25" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF25" t="inlineStr"/>
-      <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr"/>
+      <c r="BF25" t="n">
+        <v/>
+      </c>
+      <c r="BG25" t="n">
+        <v/>
+      </c>
+      <c r="BH25" t="n">
+        <v/>
+      </c>
       <c r="BI25" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ25" t="inlineStr"/>
-      <c r="BK25" t="inlineStr"/>
-      <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="inlineStr"/>
-      <c r="BN25" t="inlineStr"/>
+      <c r="BJ25" t="n">
+        <v/>
+      </c>
+      <c r="BK25" t="n">
+        <v/>
+      </c>
+      <c r="BL25" t="n">
+        <v/>
+      </c>
+      <c r="BM25" t="n">
+        <v/>
+      </c>
+      <c r="BN25" t="n">
+        <v/>
+      </c>
       <c r="BO25" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP25" t="inlineStr"/>
-      <c r="BQ25" t="inlineStr"/>
+      <c r="BP25" t="n">
+        <v/>
+      </c>
+      <c r="BQ25" t="n">
+        <v/>
+      </c>
       <c r="BR25" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BS25" t="inlineStr"/>
+      <c r="BS25" t="n">
+        <v/>
+      </c>
       <c r="BT25" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU25" t="inlineStr"/>
-      <c r="BV25" t="inlineStr"/>
-      <c r="BW25" t="inlineStr"/>
-      <c r="BX25" t="inlineStr"/>
+      <c r="BU25" t="n">
+        <v/>
+      </c>
+      <c r="BV25" t="n">
+        <v/>
+      </c>
+      <c r="BW25" t="n">
+        <v/>
+      </c>
+      <c r="BX25" t="n">
+        <v/>
+      </c>
       <c r="BY25" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ25" t="inlineStr"/>
-      <c r="CA25" t="inlineStr"/>
-      <c r="CB25" t="inlineStr"/>
+      <c r="BZ25" t="n">
+        <v/>
+      </c>
+      <c r="CA25" t="n">
+        <v/>
+      </c>
+      <c r="CB25" t="n">
+        <v/>
+      </c>
       <c r="CC25" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD25" t="inlineStr"/>
-      <c r="CE25" t="inlineStr"/>
-      <c r="CF25" t="inlineStr"/>
+      <c r="CD25" t="n">
+        <v/>
+      </c>
+      <c r="CE25" t="n">
+        <v/>
+      </c>
+      <c r="CF25" t="n">
+        <v/>
+      </c>
       <c r="CG25" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH25" t="inlineStr"/>
-      <c r="CI25" t="inlineStr"/>
-      <c r="CJ25" t="inlineStr"/>
+      <c r="CH25" t="n">
+        <v/>
+      </c>
+      <c r="CI25" t="n">
+        <v/>
+      </c>
+      <c r="CJ25" t="n">
+        <v/>
+      </c>
       <c r="CK25" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL25" t="inlineStr"/>
-      <c r="CM25" t="inlineStr"/>
+      <c r="CL25" t="n">
+        <v/>
+      </c>
+      <c r="CM25" t="n">
+        <v/>
+      </c>
       <c r="CN25" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -30959,7 +32847,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -30967,7 +32855,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v/>
+      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -31135,105 +33025,183 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
+      <c r="AO26" t="n">
+        <v/>
+      </c>
+      <c r="AP26" t="n">
+        <v/>
+      </c>
+      <c r="AQ26" t="n">
+        <v/>
+      </c>
       <c r="AR26" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
+      <c r="AS26" t="n">
+        <v/>
+      </c>
+      <c r="AT26" t="n">
+        <v/>
+      </c>
+      <c r="AU26" t="n">
+        <v/>
+      </c>
       <c r="AV26" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
+      <c r="AW26" t="n">
+        <v/>
+      </c>
+      <c r="AX26" t="n">
+        <v/>
+      </c>
+      <c r="AY26" t="n">
+        <v/>
+      </c>
+      <c r="AZ26" t="n">
+        <v/>
+      </c>
       <c r="BA26" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="inlineStr"/>
+      <c r="BB26" t="n">
+        <v/>
+      </c>
+      <c r="BC26" t="n">
+        <v/>
+      </c>
+      <c r="BD26" t="n">
+        <v/>
+      </c>
       <c r="BE26" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF26" t="inlineStr"/>
-      <c r="BG26" t="inlineStr"/>
-      <c r="BH26" t="inlineStr"/>
+      <c r="BF26" t="n">
+        <v/>
+      </c>
+      <c r="BG26" t="n">
+        <v/>
+      </c>
+      <c r="BH26" t="n">
+        <v/>
+      </c>
       <c r="BI26" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ26" t="inlineStr"/>
-      <c r="BK26" t="inlineStr"/>
+      <c r="BJ26" t="n">
+        <v/>
+      </c>
+      <c r="BK26" t="n">
+        <v/>
+      </c>
       <c r="BL26" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM26" t="inlineStr"/>
-      <c r="BN26" t="inlineStr"/>
-      <c r="BO26" t="inlineStr"/>
-      <c r="BP26" t="inlineStr"/>
+      <c r="BM26" t="n">
+        <v/>
+      </c>
+      <c r="BN26" t="n">
+        <v/>
+      </c>
+      <c r="BO26" t="n">
+        <v/>
+      </c>
+      <c r="BP26" t="n">
+        <v/>
+      </c>
       <c r="BQ26" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR26" t="inlineStr"/>
-      <c r="BS26" t="inlineStr"/>
+      <c r="BR26" t="n">
+        <v/>
+      </c>
+      <c r="BS26" t="n">
+        <v/>
+      </c>
       <c r="BT26" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU26" t="inlineStr"/>
-      <c r="BV26" t="inlineStr"/>
-      <c r="BW26" t="inlineStr"/>
+      <c r="BU26" t="n">
+        <v/>
+      </c>
+      <c r="BV26" t="n">
+        <v/>
+      </c>
+      <c r="BW26" t="n">
+        <v/>
+      </c>
       <c r="BX26" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY26" t="inlineStr"/>
-      <c r="BZ26" t="inlineStr"/>
-      <c r="CA26" t="inlineStr"/>
-      <c r="CB26" t="inlineStr"/>
+      <c r="BY26" t="n">
+        <v/>
+      </c>
+      <c r="BZ26" t="n">
+        <v/>
+      </c>
+      <c r="CA26" t="n">
+        <v/>
+      </c>
+      <c r="CB26" t="n">
+        <v/>
+      </c>
       <c r="CC26" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD26" t="inlineStr"/>
-      <c r="CE26" t="inlineStr"/>
+      <c r="CD26" t="n">
+        <v/>
+      </c>
+      <c r="CE26" t="n">
+        <v/>
+      </c>
       <c r="CF26" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG26" t="inlineStr"/>
-      <c r="CH26" t="inlineStr"/>
-      <c r="CI26" t="inlineStr"/>
-      <c r="CJ26" t="inlineStr"/>
+      <c r="CG26" t="n">
+        <v/>
+      </c>
+      <c r="CH26" t="n">
+        <v/>
+      </c>
+      <c r="CI26" t="n">
+        <v/>
+      </c>
+      <c r="CJ26" t="n">
+        <v/>
+      </c>
       <c r="CK26" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL26" t="inlineStr"/>
-      <c r="CM26" t="inlineStr"/>
+      <c r="CL26" t="n">
+        <v/>
+      </c>
+      <c r="CM26" t="n">
+        <v/>
+      </c>
       <c r="CN26" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -31251,7 +33219,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -31259,7 +33227,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v/>
+      </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
@@ -31422,110 +33392,188 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr"/>
+      <c r="AN27" t="n">
+        <v/>
+      </c>
       <c r="AO27" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
+      <c r="AP27" t="n">
+        <v/>
+      </c>
+      <c r="AQ27" t="n">
+        <v/>
+      </c>
+      <c r="AR27" t="n">
+        <v/>
+      </c>
+      <c r="AS27" t="n">
+        <v/>
+      </c>
+      <c r="AT27" t="n">
+        <v/>
+      </c>
       <c r="AU27" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AV27" t="inlineStr"/>
+      <c r="AV27" t="n">
+        <v/>
+      </c>
       <c r="AW27" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
+      <c r="AX27" t="n">
+        <v/>
+      </c>
+      <c r="AY27" t="n">
+        <v/>
+      </c>
       <c r="AZ27" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr"/>
+      <c r="BA27" t="n">
+        <v/>
+      </c>
+      <c r="BB27" t="n">
+        <v/>
+      </c>
+      <c r="BC27" t="n">
+        <v/>
+      </c>
+      <c r="BD27" t="n">
+        <v/>
+      </c>
       <c r="BE27" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF27" t="inlineStr"/>
-      <c r="BG27" t="inlineStr"/>
+      <c r="BF27" t="n">
+        <v/>
+      </c>
+      <c r="BG27" t="n">
+        <v/>
+      </c>
       <c r="BH27" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI27" t="inlineStr"/>
-      <c r="BJ27" t="inlineStr"/>
-      <c r="BK27" t="inlineStr"/>
+      <c r="BI27" t="n">
+        <v/>
+      </c>
+      <c r="BJ27" t="n">
+        <v/>
+      </c>
+      <c r="BK27" t="n">
+        <v/>
+      </c>
       <c r="BL27" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM27" t="inlineStr"/>
-      <c r="BN27" t="inlineStr"/>
-      <c r="BO27" t="inlineStr"/>
-      <c r="BP27" t="inlineStr"/>
+      <c r="BM27" t="n">
+        <v/>
+      </c>
+      <c r="BN27" t="n">
+        <v/>
+      </c>
+      <c r="BO27" t="n">
+        <v/>
+      </c>
+      <c r="BP27" t="n">
+        <v/>
+      </c>
       <c r="BQ27" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR27" t="inlineStr"/>
-      <c r="BS27" t="inlineStr"/>
-      <c r="BT27" t="inlineStr"/>
+      <c r="BR27" t="n">
+        <v/>
+      </c>
+      <c r="BS27" t="n">
+        <v/>
+      </c>
+      <c r="BT27" t="n">
+        <v/>
+      </c>
       <c r="BU27" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV27" t="inlineStr"/>
-      <c r="BW27" t="inlineStr"/>
-      <c r="BX27" t="inlineStr"/>
+      <c r="BV27" t="n">
+        <v/>
+      </c>
+      <c r="BW27" t="n">
+        <v/>
+      </c>
+      <c r="BX27" t="n">
+        <v/>
+      </c>
       <c r="BY27" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ27" t="inlineStr"/>
-      <c r="CA27" t="inlineStr"/>
+      <c r="BZ27" t="n">
+        <v/>
+      </c>
+      <c r="CA27" t="n">
+        <v/>
+      </c>
       <c r="CB27" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CC27" t="inlineStr"/>
-      <c r="CD27" t="inlineStr"/>
-      <c r="CE27" t="inlineStr"/>
+      <c r="CC27" t="n">
+        <v/>
+      </c>
+      <c r="CD27" t="n">
+        <v/>
+      </c>
+      <c r="CE27" t="n">
+        <v/>
+      </c>
       <c r="CF27" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG27" t="inlineStr"/>
-      <c r="CH27" t="inlineStr"/>
-      <c r="CI27" t="inlineStr"/>
-      <c r="CJ27" t="inlineStr"/>
+      <c r="CG27" t="n">
+        <v/>
+      </c>
+      <c r="CH27" t="n">
+        <v/>
+      </c>
+      <c r="CI27" t="n">
+        <v/>
+      </c>
+      <c r="CJ27" t="n">
+        <v/>
+      </c>
       <c r="CK27" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL27" t="inlineStr"/>
-      <c r="CM27" t="inlineStr"/>
+      <c r="CL27" t="n">
+        <v/>
+      </c>
+      <c r="CM27" t="n">
+        <v/>
+      </c>
       <c r="CN27" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -31543,7 +33591,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -31551,7 +33599,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v/>
+      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
@@ -31714,110 +33764,188 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr"/>
+      <c r="AN28" t="n">
+        <v/>
+      </c>
       <c r="AO28" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
+      <c r="AP28" t="n">
+        <v/>
+      </c>
+      <c r="AQ28" t="n">
+        <v/>
+      </c>
+      <c r="AR28" t="n">
+        <v/>
+      </c>
       <c r="AS28" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
+      <c r="AT28" t="n">
+        <v/>
+      </c>
+      <c r="AU28" t="n">
+        <v/>
+      </c>
+      <c r="AV28" t="n">
+        <v/>
+      </c>
+      <c r="AW28" t="n">
+        <v/>
+      </c>
+      <c r="AX28" t="n">
+        <v/>
+      </c>
       <c r="AY28" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AZ28" t="inlineStr"/>
+      <c r="AZ28" t="n">
+        <v/>
+      </c>
       <c r="BA28" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="inlineStr"/>
+      <c r="BB28" t="n">
+        <v/>
+      </c>
+      <c r="BC28" t="n">
+        <v/>
+      </c>
+      <c r="BD28" t="n">
+        <v/>
+      </c>
       <c r="BE28" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF28" t="inlineStr"/>
-      <c r="BG28" t="inlineStr"/>
-      <c r="BH28" t="inlineStr"/>
+      <c r="BF28" t="n">
+        <v/>
+      </c>
+      <c r="BG28" t="n">
+        <v/>
+      </c>
+      <c r="BH28" t="n">
+        <v/>
+      </c>
       <c r="BI28" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="inlineStr"/>
-      <c r="BN28" t="inlineStr"/>
+      <c r="BJ28" t="n">
+        <v/>
+      </c>
+      <c r="BK28" t="n">
+        <v/>
+      </c>
+      <c r="BL28" t="n">
+        <v/>
+      </c>
+      <c r="BM28" t="n">
+        <v/>
+      </c>
+      <c r="BN28" t="n">
+        <v/>
+      </c>
       <c r="BO28" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP28" t="inlineStr"/>
+      <c r="BP28" t="n">
+        <v/>
+      </c>
       <c r="BQ28" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR28" t="inlineStr"/>
-      <c r="BS28" t="inlineStr"/>
-      <c r="BT28" t="inlineStr"/>
+      <c r="BR28" t="n">
+        <v/>
+      </c>
+      <c r="BS28" t="n">
+        <v/>
+      </c>
+      <c r="BT28" t="n">
+        <v/>
+      </c>
       <c r="BU28" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV28" t="inlineStr"/>
-      <c r="BW28" t="inlineStr"/>
-      <c r="BX28" t="inlineStr"/>
+      <c r="BV28" t="n">
+        <v/>
+      </c>
+      <c r="BW28" t="n">
+        <v/>
+      </c>
+      <c r="BX28" t="n">
+        <v/>
+      </c>
       <c r="BY28" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ28" t="inlineStr"/>
-      <c r="CA28" t="inlineStr"/>
-      <c r="CB28" t="inlineStr"/>
+      <c r="BZ28" t="n">
+        <v/>
+      </c>
+      <c r="CA28" t="n">
+        <v/>
+      </c>
+      <c r="CB28" t="n">
+        <v/>
+      </c>
       <c r="CC28" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD28" t="inlineStr"/>
-      <c r="CE28" t="inlineStr"/>
-      <c r="CF28" t="inlineStr"/>
+      <c r="CD28" t="n">
+        <v/>
+      </c>
+      <c r="CE28" t="n">
+        <v/>
+      </c>
+      <c r="CF28" t="n">
+        <v/>
+      </c>
       <c r="CG28" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH28" t="inlineStr"/>
-      <c r="CI28" t="inlineStr"/>
-      <c r="CJ28" t="inlineStr"/>
+      <c r="CH28" t="n">
+        <v/>
+      </c>
+      <c r="CI28" t="n">
+        <v/>
+      </c>
+      <c r="CJ28" t="n">
+        <v/>
+      </c>
       <c r="CK28" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL28" t="inlineStr"/>
-      <c r="CM28" t="inlineStr"/>
+      <c r="CL28" t="n">
+        <v/>
+      </c>
+      <c r="CM28" t="n">
+        <v/>
+      </c>
       <c r="CN28" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -31835,7 +33963,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -31843,7 +33971,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v/>
+      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -32006,17 +34136,29 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr"/>
+      <c r="AN29" t="n">
+        <v/>
+      </c>
       <c r="AO29" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
+      <c r="AP29" t="n">
+        <v/>
+      </c>
+      <c r="AQ29" t="n">
+        <v/>
+      </c>
+      <c r="AR29" t="n">
+        <v/>
+      </c>
+      <c r="AS29" t="n">
+        <v/>
+      </c>
+      <c r="AT29" t="n">
+        <v/>
+      </c>
       <c r="AU29" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -32027,84 +34169,150 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
+      <c r="AW29" t="n">
+        <v/>
+      </c>
+      <c r="AX29" t="n">
+        <v/>
+      </c>
+      <c r="AY29" t="n">
+        <v/>
+      </c>
+      <c r="AZ29" t="n">
+        <v/>
+      </c>
       <c r="BA29" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
-      <c r="BD29" t="inlineStr"/>
+      <c r="BB29" t="n">
+        <v/>
+      </c>
+      <c r="BC29" t="n">
+        <v/>
+      </c>
+      <c r="BD29" t="n">
+        <v/>
+      </c>
       <c r="BE29" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF29" t="inlineStr"/>
-      <c r="BG29" t="inlineStr"/>
-      <c r="BH29" t="inlineStr"/>
+      <c r="BF29" t="n">
+        <v/>
+      </c>
+      <c r="BG29" t="n">
+        <v/>
+      </c>
+      <c r="BH29" t="n">
+        <v/>
+      </c>
       <c r="BI29" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ29" t="inlineStr"/>
-      <c r="BK29" t="inlineStr"/>
-      <c r="BL29" t="inlineStr"/>
-      <c r="BM29" t="inlineStr"/>
-      <c r="BN29" t="inlineStr"/>
+      <c r="BJ29" t="n">
+        <v/>
+      </c>
+      <c r="BK29" t="n">
+        <v/>
+      </c>
+      <c r="BL29" t="n">
+        <v/>
+      </c>
+      <c r="BM29" t="n">
+        <v/>
+      </c>
+      <c r="BN29" t="n">
+        <v/>
+      </c>
       <c r="BO29" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP29" t="inlineStr"/>
+      <c r="BP29" t="n">
+        <v/>
+      </c>
       <c r="BQ29" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR29" t="inlineStr"/>
-      <c r="BS29" t="inlineStr"/>
-      <c r="BT29" t="inlineStr"/>
+      <c r="BR29" t="n">
+        <v/>
+      </c>
+      <c r="BS29" t="n">
+        <v/>
+      </c>
+      <c r="BT29" t="n">
+        <v/>
+      </c>
       <c r="BU29" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV29" t="inlineStr"/>
-      <c r="BW29" t="inlineStr"/>
-      <c r="BX29" t="inlineStr"/>
+      <c r="BV29" t="n">
+        <v/>
+      </c>
+      <c r="BW29" t="n">
+        <v/>
+      </c>
+      <c r="BX29" t="n">
+        <v/>
+      </c>
       <c r="BY29" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ29" t="inlineStr"/>
-      <c r="CA29" t="inlineStr"/>
-      <c r="CB29" t="inlineStr"/>
+      <c r="BZ29" t="n">
+        <v/>
+      </c>
+      <c r="CA29" t="n">
+        <v/>
+      </c>
+      <c r="CB29" t="n">
+        <v/>
+      </c>
       <c r="CC29" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD29" t="inlineStr"/>
-      <c r="CE29" t="inlineStr"/>
-      <c r="CF29" t="inlineStr"/>
-      <c r="CG29" t="inlineStr"/>
-      <c r="CH29" t="inlineStr"/>
+      <c r="CD29" t="n">
+        <v/>
+      </c>
+      <c r="CE29" t="n">
+        <v/>
+      </c>
+      <c r="CF29" t="n">
+        <v/>
+      </c>
+      <c r="CG29" t="n">
+        <v/>
+      </c>
+      <c r="CH29" t="n">
+        <v/>
+      </c>
       <c r="CI29" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CJ29" t="inlineStr"/>
-      <c r="CK29" t="inlineStr"/>
-      <c r="CL29" t="inlineStr"/>
+      <c r="CJ29" t="n">
+        <v/>
+      </c>
+      <c r="CK29" t="n">
+        <v/>
+      </c>
+      <c r="CL29" t="n">
+        <v/>
+      </c>
       <c r="CM29" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -32127,7 +34335,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -32135,7 +34343,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v/>
+      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
@@ -32298,105 +34508,183 @@
           <t>Already in place</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
+      <c r="AN30" t="n">
+        <v/>
+      </c>
+      <c r="AO30" t="n">
+        <v/>
+      </c>
+      <c r="AP30" t="n">
+        <v/>
+      </c>
       <c r="AQ30" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
+      <c r="AR30" t="n">
+        <v/>
+      </c>
+      <c r="AS30" t="n">
+        <v/>
+      </c>
+      <c r="AT30" t="n">
+        <v/>
+      </c>
       <c r="AU30" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
+      <c r="AV30" t="n">
+        <v/>
+      </c>
+      <c r="AW30" t="n">
+        <v/>
+      </c>
+      <c r="AX30" t="n">
+        <v/>
+      </c>
       <c r="AY30" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
+      <c r="AZ30" t="n">
+        <v/>
+      </c>
+      <c r="BA30" t="n">
+        <v/>
+      </c>
       <c r="BB30" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="inlineStr"/>
-      <c r="BE30" t="inlineStr"/>
+      <c r="BC30" t="n">
+        <v/>
+      </c>
+      <c r="BD30" t="n">
+        <v/>
+      </c>
+      <c r="BE30" t="n">
+        <v/>
+      </c>
       <c r="BF30" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG30" t="inlineStr"/>
-      <c r="BH30" t="inlineStr"/>
-      <c r="BI30" t="inlineStr"/>
+      <c r="BG30" t="n">
+        <v/>
+      </c>
+      <c r="BH30" t="n">
+        <v/>
+      </c>
+      <c r="BI30" t="n">
+        <v/>
+      </c>
       <c r="BJ30" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BK30" t="inlineStr"/>
-      <c r="BL30" t="inlineStr"/>
-      <c r="BM30" t="inlineStr"/>
-      <c r="BN30" t="inlineStr"/>
+      <c r="BK30" t="n">
+        <v/>
+      </c>
+      <c r="BL30" t="n">
+        <v/>
+      </c>
+      <c r="BM30" t="n">
+        <v/>
+      </c>
+      <c r="BN30" t="n">
+        <v/>
+      </c>
       <c r="BO30" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP30" t="inlineStr"/>
-      <c r="BQ30" t="inlineStr"/>
-      <c r="BR30" t="inlineStr"/>
+      <c r="BP30" t="n">
+        <v/>
+      </c>
+      <c r="BQ30" t="n">
+        <v/>
+      </c>
+      <c r="BR30" t="n">
+        <v/>
+      </c>
       <c r="BS30" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BT30" t="inlineStr"/>
-      <c r="BU30" t="inlineStr"/>
-      <c r="BV30" t="inlineStr"/>
+      <c r="BT30" t="n">
+        <v/>
+      </c>
+      <c r="BU30" t="n">
+        <v/>
+      </c>
+      <c r="BV30" t="n">
+        <v/>
+      </c>
       <c r="BW30" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BX30" t="inlineStr"/>
-      <c r="BY30" t="inlineStr"/>
-      <c r="BZ30" t="inlineStr"/>
+      <c r="BX30" t="n">
+        <v/>
+      </c>
+      <c r="BY30" t="n">
+        <v/>
+      </c>
+      <c r="BZ30" t="n">
+        <v/>
+      </c>
       <c r="CA30" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CB30" t="inlineStr"/>
-      <c r="CC30" t="inlineStr"/>
+      <c r="CB30" t="n">
+        <v/>
+      </c>
+      <c r="CC30" t="n">
+        <v/>
+      </c>
       <c r="CD30" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CE30" t="inlineStr"/>
-      <c r="CF30" t="inlineStr"/>
-      <c r="CG30" t="inlineStr"/>
-      <c r="CH30" t="inlineStr"/>
+      <c r="CE30" t="n">
+        <v/>
+      </c>
+      <c r="CF30" t="n">
+        <v/>
+      </c>
+      <c r="CG30" t="n">
+        <v/>
+      </c>
+      <c r="CH30" t="n">
+        <v/>
+      </c>
       <c r="CI30" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CJ30" t="inlineStr"/>
-      <c r="CK30" t="inlineStr"/>
-      <c r="CL30" t="inlineStr"/>
+      <c r="CJ30" t="n">
+        <v/>
+      </c>
+      <c r="CK30" t="n">
+        <v/>
+      </c>
+      <c r="CL30" t="n">
+        <v/>
+      </c>
       <c r="CM30" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -32419,7 +34707,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -32427,7 +34715,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v/>
+      </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
@@ -32590,39 +34880,65 @@
           <t>Already in place</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr"/>
+      <c r="AN31" t="n">
+        <v/>
+      </c>
       <c r="AO31" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
+      <c r="AP31" t="n">
+        <v/>
+      </c>
+      <c r="AQ31" t="n">
+        <v/>
+      </c>
       <c r="AR31" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
+      <c r="AS31" t="n">
+        <v/>
+      </c>
+      <c r="AT31" t="n">
+        <v/>
+      </c>
+      <c r="AU31" t="n">
+        <v/>
+      </c>
       <c r="AV31" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
+      <c r="AW31" t="n">
+        <v/>
+      </c>
+      <c r="AX31" t="n">
+        <v/>
+      </c>
+      <c r="AY31" t="n">
+        <v/>
+      </c>
       <c r="AZ31" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
-      <c r="BD31" t="inlineStr"/>
+      <c r="BA31" t="n">
+        <v/>
+      </c>
+      <c r="BB31" t="n">
+        <v/>
+      </c>
+      <c r="BC31" t="n">
+        <v/>
+      </c>
+      <c r="BD31" t="n">
+        <v/>
+      </c>
       <c r="BE31" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -32633,71 +34949,121 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG31" t="inlineStr"/>
-      <c r="BH31" t="inlineStr"/>
+      <c r="BG31" t="n">
+        <v/>
+      </c>
+      <c r="BH31" t="n">
+        <v/>
+      </c>
       <c r="BI31" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ31" t="inlineStr"/>
-      <c r="BK31" t="inlineStr"/>
+      <c r="BJ31" t="n">
+        <v/>
+      </c>
+      <c r="BK31" t="n">
+        <v/>
+      </c>
       <c r="BL31" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM31" t="inlineStr"/>
-      <c r="BN31" t="inlineStr"/>
-      <c r="BO31" t="inlineStr"/>
-      <c r="BP31" t="inlineStr"/>
+      <c r="BM31" t="n">
+        <v/>
+      </c>
+      <c r="BN31" t="n">
+        <v/>
+      </c>
+      <c r="BO31" t="n">
+        <v/>
+      </c>
+      <c r="BP31" t="n">
+        <v/>
+      </c>
       <c r="BQ31" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR31" t="inlineStr"/>
-      <c r="BS31" t="inlineStr"/>
+      <c r="BR31" t="n">
+        <v/>
+      </c>
+      <c r="BS31" t="n">
+        <v/>
+      </c>
       <c r="BT31" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU31" t="inlineStr"/>
-      <c r="BV31" t="inlineStr"/>
-      <c r="BW31" t="inlineStr"/>
+      <c r="BU31" t="n">
+        <v/>
+      </c>
+      <c r="BV31" t="n">
+        <v/>
+      </c>
+      <c r="BW31" t="n">
+        <v/>
+      </c>
       <c r="BX31" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY31" t="inlineStr"/>
-      <c r="BZ31" t="inlineStr"/>
-      <c r="CA31" t="inlineStr"/>
-      <c r="CB31" t="inlineStr"/>
+      <c r="BY31" t="n">
+        <v/>
+      </c>
+      <c r="BZ31" t="n">
+        <v/>
+      </c>
+      <c r="CA31" t="n">
+        <v/>
+      </c>
+      <c r="CB31" t="n">
+        <v/>
+      </c>
       <c r="CC31" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD31" t="inlineStr"/>
-      <c r="CE31" t="inlineStr"/>
-      <c r="CF31" t="inlineStr"/>
+      <c r="CD31" t="n">
+        <v/>
+      </c>
+      <c r="CE31" t="n">
+        <v/>
+      </c>
+      <c r="CF31" t="n">
+        <v/>
+      </c>
       <c r="CG31" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH31" t="inlineStr"/>
-      <c r="CI31" t="inlineStr"/>
-      <c r="CJ31" t="inlineStr"/>
+      <c r="CH31" t="n">
+        <v/>
+      </c>
+      <c r="CI31" t="n">
+        <v/>
+      </c>
+      <c r="CJ31" t="n">
+        <v/>
+      </c>
       <c r="CK31" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL31" t="inlineStr"/>
-      <c r="CM31" t="inlineStr"/>
+      <c r="CL31" t="n">
+        <v/>
+      </c>
+      <c r="CM31" t="n">
+        <v/>
+      </c>
       <c r="CN31" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -32715,7 +35081,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -32723,7 +35089,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v/>
+      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
@@ -32886,110 +35254,188 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN32" t="inlineStr"/>
+      <c r="AN32" t="n">
+        <v/>
+      </c>
       <c r="AO32" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
+      <c r="AP32" t="n">
+        <v/>
+      </c>
+      <c r="AQ32" t="n">
+        <v/>
+      </c>
+      <c r="AR32" t="n">
+        <v/>
+      </c>
+      <c r="AS32" t="n">
+        <v/>
+      </c>
+      <c r="AT32" t="n">
+        <v/>
+      </c>
       <c r="AU32" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
+      <c r="AV32" t="n">
+        <v/>
+      </c>
+      <c r="AW32" t="n">
+        <v/>
+      </c>
+      <c r="AX32" t="n">
+        <v/>
+      </c>
       <c r="AY32" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
+      <c r="AZ32" t="n">
+        <v/>
+      </c>
+      <c r="BA32" t="n">
+        <v/>
+      </c>
       <c r="BB32" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="inlineStr"/>
+      <c r="BC32" t="n">
+        <v/>
+      </c>
+      <c r="BD32" t="n">
+        <v/>
+      </c>
       <c r="BE32" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF32" t="inlineStr"/>
-      <c r="BG32" t="inlineStr"/>
-      <c r="BH32" t="inlineStr"/>
+      <c r="BF32" t="n">
+        <v/>
+      </c>
+      <c r="BG32" t="n">
+        <v/>
+      </c>
+      <c r="BH32" t="n">
+        <v/>
+      </c>
       <c r="BI32" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ32" t="inlineStr"/>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" t="inlineStr"/>
+      <c r="BJ32" t="n">
+        <v/>
+      </c>
+      <c r="BK32" t="n">
+        <v/>
+      </c>
+      <c r="BL32" t="n">
+        <v/>
+      </c>
       <c r="BM32" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BN32" t="inlineStr"/>
-      <c r="BO32" t="inlineStr"/>
-      <c r="BP32" t="inlineStr"/>
+      <c r="BN32" t="n">
+        <v/>
+      </c>
+      <c r="BO32" t="n">
+        <v/>
+      </c>
+      <c r="BP32" t="n">
+        <v/>
+      </c>
       <c r="BQ32" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR32" t="inlineStr"/>
-      <c r="BS32" t="inlineStr"/>
-      <c r="BT32" t="inlineStr"/>
+      <c r="BR32" t="n">
+        <v/>
+      </c>
+      <c r="BS32" t="n">
+        <v/>
+      </c>
+      <c r="BT32" t="n">
+        <v/>
+      </c>
       <c r="BU32" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BV32" t="inlineStr"/>
-      <c r="BW32" t="inlineStr"/>
-      <c r="BX32" t="inlineStr"/>
+      <c r="BV32" t="n">
+        <v/>
+      </c>
+      <c r="BW32" t="n">
+        <v/>
+      </c>
+      <c r="BX32" t="n">
+        <v/>
+      </c>
       <c r="BY32" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ32" t="inlineStr"/>
-      <c r="CA32" t="inlineStr"/>
-      <c r="CB32" t="inlineStr"/>
+      <c r="BZ32" t="n">
+        <v/>
+      </c>
+      <c r="CA32" t="n">
+        <v/>
+      </c>
+      <c r="CB32" t="n">
+        <v/>
+      </c>
       <c r="CC32" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD32" t="inlineStr"/>
-      <c r="CE32" t="inlineStr"/>
-      <c r="CF32" t="inlineStr"/>
+      <c r="CD32" t="n">
+        <v/>
+      </c>
+      <c r="CE32" t="n">
+        <v/>
+      </c>
+      <c r="CF32" t="n">
+        <v/>
+      </c>
       <c r="CG32" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH32" t="inlineStr"/>
-      <c r="CI32" t="inlineStr"/>
-      <c r="CJ32" t="inlineStr"/>
+      <c r="CH32" t="n">
+        <v/>
+      </c>
+      <c r="CI32" t="n">
+        <v/>
+      </c>
+      <c r="CJ32" t="n">
+        <v/>
+      </c>
       <c r="CK32" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL32" t="inlineStr"/>
-      <c r="CM32" t="inlineStr"/>
+      <c r="CL32" t="n">
+        <v/>
+      </c>
+      <c r="CM32" t="n">
+        <v/>
+      </c>
       <c r="CN32" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -33007,7 +35453,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -33015,7 +35461,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v/>
+      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
@@ -33178,114 +35626,190 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN33" t="inlineStr"/>
+      <c r="AN33" t="n">
+        <v/>
+      </c>
       <c r="AO33" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
+      <c r="AP33" t="n">
+        <v/>
+      </c>
+      <c r="AQ33" t="n">
+        <v/>
+      </c>
       <c r="AR33" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
+      <c r="AS33" t="n">
+        <v/>
+      </c>
+      <c r="AT33" t="n">
+        <v/>
+      </c>
+      <c r="AU33" t="n">
+        <v/>
+      </c>
       <c r="AV33" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
+      <c r="AW33" t="n">
+        <v/>
+      </c>
+      <c r="AX33" t="n">
+        <v/>
+      </c>
+      <c r="AY33" t="n">
+        <v/>
+      </c>
       <c r="AZ33" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="inlineStr"/>
+      <c r="BA33" t="n">
+        <v/>
+      </c>
+      <c r="BB33" t="n">
+        <v/>
+      </c>
+      <c r="BC33" t="n">
+        <v/>
+      </c>
+      <c r="BD33" t="n">
+        <v/>
+      </c>
       <c r="BE33" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF33" t="inlineStr"/>
-      <c r="BG33" t="inlineStr"/>
-      <c r="BH33" t="inlineStr"/>
+      <c r="BF33" t="n">
+        <v/>
+      </c>
+      <c r="BG33" t="n">
+        <v/>
+      </c>
+      <c r="BH33" t="n">
+        <v/>
+      </c>
       <c r="BI33" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BJ33" t="inlineStr"/>
-      <c r="BK33" t="inlineStr"/>
+      <c r="BJ33" t="n">
+        <v/>
+      </c>
+      <c r="BK33" t="n">
+        <v/>
+      </c>
       <c r="BL33" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BM33" t="inlineStr"/>
-      <c r="BN33" t="inlineStr"/>
+      <c r="BM33" t="n">
+        <v/>
+      </c>
+      <c r="BN33" t="n">
+        <v/>
+      </c>
       <c r="BO33" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP33" t="inlineStr"/>
+      <c r="BP33" t="n">
+        <v/>
+      </c>
       <c r="BQ33" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BR33" t="inlineStr"/>
-      <c r="BS33" t="inlineStr"/>
+      <c r="BR33" t="n">
+        <v/>
+      </c>
+      <c r="BS33" t="n">
+        <v/>
+      </c>
       <c r="BT33" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU33" t="inlineStr"/>
-      <c r="BV33" t="inlineStr"/>
-      <c r="BW33" t="inlineStr"/>
-      <c r="BX33" t="inlineStr"/>
+      <c r="BU33" t="n">
+        <v/>
+      </c>
+      <c r="BV33" t="n">
+        <v/>
+      </c>
+      <c r="BW33" t="n">
+        <v/>
+      </c>
+      <c r="BX33" t="n">
+        <v/>
+      </c>
       <c r="BY33" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ33" t="inlineStr"/>
-      <c r="CA33" t="inlineStr"/>
-      <c r="CB33" t="inlineStr"/>
+      <c r="BZ33" t="n">
+        <v/>
+      </c>
+      <c r="CA33" t="n">
+        <v/>
+      </c>
+      <c r="CB33" t="n">
+        <v/>
+      </c>
       <c r="CC33" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD33" t="inlineStr"/>
-      <c r="CE33" t="inlineStr"/>
+      <c r="CD33" t="n">
+        <v/>
+      </c>
+      <c r="CE33" t="n">
+        <v/>
+      </c>
       <c r="CF33" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="CG33" t="inlineStr"/>
-      <c r="CH33" t="inlineStr"/>
-      <c r="CI33" t="inlineStr"/>
-      <c r="CJ33" t="inlineStr"/>
+      <c r="CG33" t="n">
+        <v/>
+      </c>
+      <c r="CH33" t="n">
+        <v/>
+      </c>
+      <c r="CI33" t="n">
+        <v/>
+      </c>
+      <c r="CJ33" t="n">
+        <v/>
+      </c>
       <c r="CK33" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL33" t="inlineStr"/>
-      <c r="CM33" t="inlineStr"/>
+      <c r="CL33" t="n">
+        <v/>
+      </c>
+      <c r="CM33" t="n">
+        <v/>
+      </c>
       <c r="CN33" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -33303,7 +35827,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -33311,7 +35835,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v/>
+      </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
@@ -33474,65 +36000,113 @@
           <t>No plans to adopt</t>
         </is>
       </c>
-      <c r="AN34" t="inlineStr"/>
+      <c r="AN34" t="n">
+        <v/>
+      </c>
       <c r="AO34" t="inlineStr">
         <is>
           <t>Is a Goal</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
+      <c r="AP34" t="n">
+        <v/>
+      </c>
+      <c r="AQ34" t="n">
+        <v/>
+      </c>
       <c r="AR34" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
+      <c r="AS34" t="n">
+        <v/>
+      </c>
+      <c r="AT34" t="n">
+        <v/>
+      </c>
+      <c r="AU34" t="n">
+        <v/>
+      </c>
+      <c r="AV34" t="n">
+        <v/>
+      </c>
       <c r="AW34" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
+      <c r="AX34" t="n">
+        <v/>
+      </c>
+      <c r="AY34" t="n">
+        <v/>
+      </c>
+      <c r="AZ34" t="n">
+        <v/>
+      </c>
       <c r="BA34" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="inlineStr"/>
+      <c r="BB34" t="n">
+        <v/>
+      </c>
+      <c r="BC34" t="n">
+        <v/>
+      </c>
+      <c r="BD34" t="n">
+        <v/>
+      </c>
       <c r="BE34" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF34" t="inlineStr"/>
-      <c r="BG34" t="inlineStr"/>
+      <c r="BF34" t="n">
+        <v/>
+      </c>
+      <c r="BG34" t="n">
+        <v/>
+      </c>
       <c r="BH34" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI34" t="inlineStr"/>
-      <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="inlineStr"/>
-      <c r="BM34" t="inlineStr"/>
-      <c r="BN34" t="inlineStr"/>
+      <c r="BI34" t="n">
+        <v/>
+      </c>
+      <c r="BJ34" t="n">
+        <v/>
+      </c>
+      <c r="BK34" t="n">
+        <v/>
+      </c>
+      <c r="BL34" t="n">
+        <v/>
+      </c>
+      <c r="BM34" t="n">
+        <v/>
+      </c>
+      <c r="BN34" t="n">
+        <v/>
+      </c>
       <c r="BO34" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP34" t="inlineStr"/>
-      <c r="BQ34" t="inlineStr"/>
-      <c r="BR34" t="inlineStr"/>
+      <c r="BP34" t="n">
+        <v/>
+      </c>
+      <c r="BQ34" t="n">
+        <v/>
+      </c>
+      <c r="BR34" t="n">
+        <v/>
+      </c>
       <c r="BS34" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -33543,41 +36117,71 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU34" t="inlineStr"/>
-      <c r="BV34" t="inlineStr"/>
-      <c r="BW34" t="inlineStr"/>
-      <c r="BX34" t="inlineStr"/>
+      <c r="BU34" t="n">
+        <v/>
+      </c>
+      <c r="BV34" t="n">
+        <v/>
+      </c>
+      <c r="BW34" t="n">
+        <v/>
+      </c>
+      <c r="BX34" t="n">
+        <v/>
+      </c>
       <c r="BY34" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BZ34" t="inlineStr"/>
-      <c r="CA34" t="inlineStr"/>
-      <c r="CB34" t="inlineStr"/>
+      <c r="BZ34" t="n">
+        <v/>
+      </c>
+      <c r="CA34" t="n">
+        <v/>
+      </c>
+      <c r="CB34" t="n">
+        <v/>
+      </c>
       <c r="CC34" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD34" t="inlineStr"/>
-      <c r="CE34" t="inlineStr"/>
-      <c r="CF34" t="inlineStr"/>
-      <c r="CG34" t="inlineStr"/>
-      <c r="CH34" t="inlineStr"/>
+      <c r="CD34" t="n">
+        <v/>
+      </c>
+      <c r="CE34" t="n">
+        <v/>
+      </c>
+      <c r="CF34" t="n">
+        <v/>
+      </c>
+      <c r="CG34" t="n">
+        <v/>
+      </c>
+      <c r="CH34" t="n">
+        <v/>
+      </c>
       <c r="CI34" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CJ34" t="inlineStr"/>
+      <c r="CJ34" t="n">
+        <v/>
+      </c>
       <c r="CK34" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL34" t="inlineStr"/>
-      <c r="CM34" t="inlineStr"/>
+      <c r="CL34" t="n">
+        <v/>
+      </c>
+      <c r="CM34" t="n">
+        <v/>
+      </c>
       <c r="CN34" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -33595,7 +36199,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -33603,7 +36207,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v/>
+      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
@@ -33771,68 +36377,122 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
+      <c r="AO35" t="n">
+        <v/>
+      </c>
+      <c r="AP35" t="n">
+        <v/>
+      </c>
+      <c r="AQ35" t="n">
+        <v/>
+      </c>
       <c r="AR35" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
+      <c r="AS35" t="n">
+        <v/>
+      </c>
+      <c r="AT35" t="n">
+        <v/>
+      </c>
+      <c r="AU35" t="n">
+        <v/>
+      </c>
       <c r="AV35" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
+      <c r="AW35" t="n">
+        <v/>
+      </c>
+      <c r="AX35" t="n">
+        <v/>
+      </c>
+      <c r="AY35" t="n">
+        <v/>
+      </c>
       <c r="AZ35" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
+      <c r="BA35" t="n">
+        <v/>
+      </c>
+      <c r="BB35" t="n">
+        <v/>
+      </c>
+      <c r="BC35" t="n">
+        <v/>
+      </c>
+      <c r="BD35" t="n">
+        <v/>
+      </c>
       <c r="BE35" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="BF35" t="inlineStr"/>
-      <c r="BG35" t="inlineStr"/>
+      <c r="BF35" t="n">
+        <v/>
+      </c>
+      <c r="BG35" t="n">
+        <v/>
+      </c>
       <c r="BH35" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI35" t="inlineStr"/>
-      <c r="BJ35" t="inlineStr"/>
-      <c r="BK35" t="inlineStr"/>
-      <c r="BL35" t="inlineStr"/>
-      <c r="BM35" t="inlineStr"/>
-      <c r="BN35" t="inlineStr"/>
+      <c r="BI35" t="n">
+        <v/>
+      </c>
+      <c r="BJ35" t="n">
+        <v/>
+      </c>
+      <c r="BK35" t="n">
+        <v/>
+      </c>
+      <c r="BL35" t="n">
+        <v/>
+      </c>
+      <c r="BM35" t="n">
+        <v/>
+      </c>
+      <c r="BN35" t="n">
+        <v/>
+      </c>
       <c r="BO35" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP35" t="inlineStr"/>
-      <c r="BQ35" t="inlineStr"/>
-      <c r="BR35" t="inlineStr"/>
+      <c r="BP35" t="n">
+        <v/>
+      </c>
+      <c r="BQ35" t="n">
+        <v/>
+      </c>
+      <c r="BR35" t="n">
+        <v/>
+      </c>
       <c r="BS35" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BT35" t="inlineStr"/>
-      <c r="BU35" t="inlineStr"/>
-      <c r="BV35" t="inlineStr"/>
+      <c r="BT35" t="n">
+        <v/>
+      </c>
+      <c r="BU35" t="n">
+        <v/>
+      </c>
+      <c r="BV35" t="n">
+        <v/>
+      </c>
       <c r="BW35" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -33843,33 +36503,57 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY35" t="inlineStr"/>
-      <c r="BZ35" t="inlineStr"/>
-      <c r="CA35" t="inlineStr"/>
-      <c r="CB35" t="inlineStr"/>
+      <c r="BY35" t="n">
+        <v/>
+      </c>
+      <c r="BZ35" t="n">
+        <v/>
+      </c>
+      <c r="CA35" t="n">
+        <v/>
+      </c>
+      <c r="CB35" t="n">
+        <v/>
+      </c>
       <c r="CC35" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD35" t="inlineStr"/>
-      <c r="CE35" t="inlineStr"/>
-      <c r="CF35" t="inlineStr"/>
-      <c r="CG35" t="inlineStr"/>
-      <c r="CH35" t="inlineStr"/>
+      <c r="CD35" t="n">
+        <v/>
+      </c>
+      <c r="CE35" t="n">
+        <v/>
+      </c>
+      <c r="CF35" t="n">
+        <v/>
+      </c>
+      <c r="CG35" t="n">
+        <v/>
+      </c>
+      <c r="CH35" t="n">
+        <v/>
+      </c>
       <c r="CI35" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="CJ35" t="inlineStr"/>
+      <c r="CJ35" t="n">
+        <v/>
+      </c>
       <c r="CK35" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CL35" t="inlineStr"/>
-      <c r="CM35" t="inlineStr"/>
+      <c r="CL35" t="n">
+        <v/>
+      </c>
+      <c r="CM35" t="n">
+        <v/>
+      </c>
       <c r="CN35" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>
@@ -33887,7 +36571,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Christopher Ramos</t>
+          <t>Carmen Matthews</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -33895,7 +36579,9 @@
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v/>
+      </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
@@ -34058,9 +36744,15 @@
           <t>Planning to adopt</t>
         </is>
       </c>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
+      <c r="AN36" t="n">
+        <v/>
+      </c>
+      <c r="AO36" t="n">
+        <v/>
+      </c>
+      <c r="AP36" t="n">
+        <v/>
+      </c>
       <c r="AQ36" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -34071,52 +36763,94 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
+      <c r="AS36" t="n">
+        <v/>
+      </c>
+      <c r="AT36" t="n">
+        <v/>
+      </c>
+      <c r="AU36" t="n">
+        <v/>
+      </c>
       <c r="AV36" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
+      <c r="AW36" t="n">
+        <v/>
+      </c>
+      <c r="AX36" t="n">
+        <v/>
+      </c>
+      <c r="AY36" t="n">
+        <v/>
+      </c>
       <c r="AZ36" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="inlineStr"/>
-      <c r="BE36" t="inlineStr"/>
+      <c r="BA36" t="n">
+        <v/>
+      </c>
+      <c r="BB36" t="n">
+        <v/>
+      </c>
+      <c r="BC36" t="n">
+        <v/>
+      </c>
+      <c r="BD36" t="n">
+        <v/>
+      </c>
+      <c r="BE36" t="n">
+        <v/>
+      </c>
       <c r="BF36" t="inlineStr">
         <is>
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="BG36" t="inlineStr"/>
+      <c r="BG36" t="n">
+        <v/>
+      </c>
       <c r="BH36" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BI36" t="inlineStr"/>
-      <c r="BJ36" t="inlineStr"/>
-      <c r="BK36" t="inlineStr"/>
-      <c r="BL36" t="inlineStr"/>
-      <c r="BM36" t="inlineStr"/>
-      <c r="BN36" t="inlineStr"/>
+      <c r="BI36" t="n">
+        <v/>
+      </c>
+      <c r="BJ36" t="n">
+        <v/>
+      </c>
+      <c r="BK36" t="n">
+        <v/>
+      </c>
+      <c r="BL36" t="n">
+        <v/>
+      </c>
+      <c r="BM36" t="n">
+        <v/>
+      </c>
+      <c r="BN36" t="n">
+        <v/>
+      </c>
       <c r="BO36" t="inlineStr">
         <is>
           <t>Unsure</t>
         </is>
       </c>
-      <c r="BP36" t="inlineStr"/>
-      <c r="BQ36" t="inlineStr"/>
-      <c r="BR36" t="inlineStr"/>
+      <c r="BP36" t="n">
+        <v/>
+      </c>
+      <c r="BQ36" t="n">
+        <v/>
+      </c>
+      <c r="BR36" t="n">
+        <v/>
+      </c>
       <c r="BS36" t="inlineStr">
         <is>
           <t>Unsure</t>
@@ -34127,34 +36861,60 @@
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BU36" t="inlineStr"/>
-      <c r="BV36" t="inlineStr"/>
-      <c r="BW36" t="inlineStr"/>
+      <c r="BU36" t="n">
+        <v/>
+      </c>
+      <c r="BV36" t="n">
+        <v/>
+      </c>
+      <c r="BW36" t="n">
+        <v/>
+      </c>
       <c r="BX36" t="inlineStr">
         <is>
           <t>Not a goal</t>
         </is>
       </c>
-      <c r="BY36" t="inlineStr"/>
-      <c r="BZ36" t="inlineStr"/>
-      <c r="CA36" t="inlineStr"/>
-      <c r="CB36" t="inlineStr"/>
+      <c r="BY36" t="n">
+        <v/>
+      </c>
+      <c r="BZ36" t="n">
+        <v/>
+      </c>
+      <c r="CA36" t="n">
+        <v/>
+      </c>
+      <c r="CB36" t="n">
+        <v/>
+      </c>
       <c r="CC36" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CD36" t="inlineStr"/>
-      <c r="CE36" t="inlineStr"/>
-      <c r="CF36" t="inlineStr"/>
+      <c r="CD36" t="n">
+        <v/>
+      </c>
+      <c r="CE36" t="n">
+        <v/>
+      </c>
+      <c r="CF36" t="n">
+        <v/>
+      </c>
       <c r="CG36" t="inlineStr">
         <is>
           <t>Is a goal</t>
         </is>
       </c>
-      <c r="CH36" t="inlineStr"/>
-      <c r="CI36" t="inlineStr"/>
-      <c r="CJ36" t="inlineStr"/>
+      <c r="CH36" t="n">
+        <v/>
+      </c>
+      <c r="CI36" t="n">
+        <v/>
+      </c>
+      <c r="CJ36" t="n">
+        <v/>
+      </c>
       <c r="CK36" t="inlineStr">
         <is>
           <t>Is a goal</t>
@@ -34165,7 +36925,9 @@
           <t>Goal was achieved</t>
         </is>
       </c>
-      <c r="CM36" t="inlineStr"/>
+      <c r="CM36" t="n">
+        <v/>
+      </c>
       <c r="CN36" t="inlineStr">
         <is>
           <t>Response Data 357100 Please List Any Other Goals Your Coalition Is Working Towards Which Do Not Fit Under Any Of The Goals Listed Above.</t>

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q2_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q2_Export.xlsx
@@ -23895,7 +23895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24275,7 +24275,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24649,7 +24649,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25021,7 +25021,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25393,7 +25393,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25765,7 +25765,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26517,7 +26517,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26889,7 +26889,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27263,7 +27263,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28379,7 +28379,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28751,7 +28751,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29123,7 +29123,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29495,7 +29495,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29867,7 +29867,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30239,7 +30239,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -30985,7 +30985,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31357,7 +31357,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31731,7 +31731,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32103,7 +32103,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32475,7 +32475,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -32847,7 +32847,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33219,7 +33219,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -33963,7 +33963,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34335,7 +34335,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34707,7 +34707,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35081,7 +35081,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35453,7 +35453,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -35827,7 +35827,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36199,7 +36199,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36571,7 +36571,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Carmen Matthews</t>
+          <t>William Porter</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q2_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q2_Export.xlsx
@@ -23895,7 +23895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24275,7 +24275,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24649,7 +24649,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25021,7 +25021,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25393,7 +25393,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25765,7 +25765,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26517,7 +26517,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26889,7 +26889,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27263,7 +27263,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28379,7 +28379,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28751,7 +28751,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29123,7 +29123,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29495,7 +29495,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29867,7 +29867,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30239,7 +30239,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -30985,7 +30985,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31357,7 +31357,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31731,7 +31731,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32103,7 +32103,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32475,7 +32475,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -32847,7 +32847,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33219,7 +33219,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -33963,7 +33963,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34335,7 +34335,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34707,7 +34707,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35081,7 +35081,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35453,7 +35453,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -35827,7 +35827,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36199,7 +36199,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36571,7 +36571,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>William Porter</t>
+          <t>Eric Miller</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q2_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q2_Export.xlsx
@@ -23895,7 +23895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24275,7 +24275,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24649,7 +24649,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25021,7 +25021,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25393,7 +25393,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25765,7 +25765,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26517,7 +26517,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26889,7 +26889,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27263,7 +27263,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28379,7 +28379,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28751,7 +28751,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29123,7 +29123,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29495,7 +29495,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29867,7 +29867,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30239,7 +30239,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -30985,7 +30985,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31357,7 +31357,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31731,7 +31731,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32103,7 +32103,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32475,7 +32475,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -32847,7 +32847,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33219,7 +33219,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -33963,7 +33963,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34335,7 +34335,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34707,7 +34707,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35081,7 +35081,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35453,7 +35453,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -35827,7 +35827,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36199,7 +36199,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36571,7 +36571,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Eric Miller</t>
+          <t>Dr. James Khan MD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">

--- a/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q2_Export.xlsx
+++ b/tests/test_inputs/pears/coalition_survey_exports/Coalition_Survey_Q2_Export.xlsx
@@ -23895,7 +23895,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -24275,7 +24275,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -24649,7 +24649,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -25021,7 +25021,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -25393,7 +25393,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -25765,7 +25765,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -26517,7 +26517,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -26889,7 +26889,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -27263,7 +27263,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -28379,7 +28379,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -28751,7 +28751,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -29123,7 +29123,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -29495,7 +29495,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -29867,7 +29867,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -30239,7 +30239,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -30985,7 +30985,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -31357,7 +31357,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -31731,7 +31731,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -32103,7 +32103,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -32475,7 +32475,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -32847,7 +32847,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -33219,7 +33219,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -33963,7 +33963,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -34335,7 +34335,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -34707,7 +34707,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -35081,7 +35081,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -35453,7 +35453,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -35827,7 +35827,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -36199,7 +36199,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -36571,7 +36571,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
